--- a/Etivity2/Excel_chi-quadro.xlsx
+++ b/Etivity2/Excel_chi-quadro.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Esempio" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Analisi" sheetId="8" r:id="rId5"/>
     <sheet name="Annotazioni" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1537,13 +1537,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2484,6 +2484,12 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2505,11 +2511,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2532,36 +2568,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2574,44 +2580,28 @@
     <xf numFmtId="43" fontId="2" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3128,7 +3118,7 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3147,7 +3137,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3161,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +3166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3191,7 +3181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3212,7 +3202,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3221,7 +3211,7 @@
         <v>0.74796747967479671</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3230,13 +3220,13 @@
         <v>0.25203252032520324</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="D8" s="6">
         <f>SUM(D6:D7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3250,7 +3240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -3284,7 +3274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
@@ -3305,90 +3295,90 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="110" t="s">
+    <row r="16" spans="2:15">
+      <c r="B16" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
       <c r="G16" s="13" t="str">
         <f>"(52-46,37)2"</f>
         <v>(52-46,37)2</v>
       </c>
-      <c r="H16" s="104" t="s">
+      <c r="H16" s="106" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="13" t="str">
         <f>"(10-15,63)2"</f>
         <v>(10-15,63)2</v>
       </c>
-      <c r="J16" s="104" t="s">
+      <c r="J16" s="106" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="13" t="str">
         <f>"(40-45,63)2"</f>
         <v>(40-45,63)2</v>
       </c>
-      <c r="L16" s="104" t="s">
+      <c r="L16" s="106" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="13" t="str">
         <f>"(21-15,37)2"</f>
         <v>(21-15,37)2</v>
       </c>
-      <c r="N16" s="104" t="s">
+      <c r="N16" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="106">
+      <c r="O16" s="108">
         <v>5.46</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="110"/>
-      <c r="C17" s="109" t="s">
+    <row r="17" spans="1:15">
+      <c r="B17" s="112"/>
+      <c r="C17" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
       <c r="G17" s="1">
         <v>46.37</v>
       </c>
-      <c r="H17" s="105"/>
+      <c r="H17" s="107"/>
       <c r="I17" s="1">
         <v>15.63</v>
       </c>
-      <c r="J17" s="105"/>
+      <c r="J17" s="107"/>
       <c r="K17" s="1">
         <v>45.63</v>
       </c>
-      <c r="L17" s="105"/>
+      <c r="L17" s="107"/>
       <c r="M17" s="1">
         <v>15.37</v>
       </c>
-      <c r="N17" s="105"/>
-      <c r="O17" s="106"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="107" t="s">
+      <c r="N17" s="107"/>
+      <c r="O17" s="108"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="105" t="s">
+    <row r="22" spans="1:15">
+      <c r="B22" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
@@ -3399,7 +3389,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="B24" s="1">
         <v>1</v>
       </c>
@@ -3410,7 +3400,7 @@
         <v>6.6349999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="B26" s="12" t="s">
         <v>18</v>
       </c>
@@ -3441,7 +3431,7 @@
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -3474,7 +3464,7 @@
     <col min="38" max="42" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
@@ -3602,7 +3592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
@@ -3730,7 +3720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42">
       <c r="A3" s="16" t="s">
         <v>64</v>
       </c>
@@ -3846,7 +3836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42">
       <c r="A4" s="16" t="s">
         <v>66</v>
       </c>
@@ -3974,7 +3964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42">
       <c r="A5" s="16" t="s">
         <v>68</v>
       </c>
@@ -4090,7 +4080,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42">
       <c r="A6" s="16" t="s">
         <v>70</v>
       </c>
@@ -4218,7 +4208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42">
       <c r="A7" s="16" t="s">
         <v>72</v>
       </c>
@@ -4346,7 +4336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42">
       <c r="A8" s="16" t="s">
         <v>74</v>
       </c>
@@ -4474,7 +4464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42">
       <c r="A9" s="16" t="s">
         <v>76</v>
       </c>
@@ -4602,7 +4592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42">
       <c r="A10" s="16" t="s">
         <v>78</v>
       </c>
@@ -4724,7 +4714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42">
       <c r="A11" s="16" t="s">
         <v>80</v>
       </c>
@@ -4840,7 +4830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42">
       <c r="A12" s="16" t="s">
         <v>82</v>
       </c>
@@ -4968,7 +4958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42">
       <c r="A13" s="16" t="s">
         <v>84</v>
       </c>
@@ -5096,7 +5086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42">
       <c r="A14" s="16" t="s">
         <v>86</v>
       </c>
@@ -5224,7 +5214,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42">
       <c r="A15" s="16" t="s">
         <v>88</v>
       </c>
@@ -5352,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42">
       <c r="A16" s="16" t="s">
         <v>90</v>
       </c>
@@ -5468,7 +5458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42">
       <c r="A17" s="16" t="s">
         <v>92</v>
       </c>
@@ -5596,7 +5586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42">
       <c r="A18" s="16" t="s">
         <v>94</v>
       </c>
@@ -5724,7 +5714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42">
       <c r="A19" s="16" t="s">
         <v>96</v>
       </c>
@@ -5840,7 +5830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42">
       <c r="A20" s="16" t="s">
         <v>98</v>
       </c>
@@ -5968,7 +5958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42">
       <c r="A21" s="16" t="s">
         <v>100</v>
       </c>
@@ -6096,7 +6086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42">
       <c r="A22" s="16" t="s">
         <v>102</v>
       </c>
@@ -6224,7 +6214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42">
       <c r="A23" s="16" t="s">
         <v>104</v>
       </c>
@@ -6340,7 +6330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42">
       <c r="A24" s="16" t="s">
         <v>106</v>
       </c>
@@ -6468,7 +6458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42">
       <c r="A25" s="16" t="s">
         <v>108</v>
       </c>
@@ -6596,7 +6586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42">
       <c r="A26" s="16" t="s">
         <v>110</v>
       </c>
@@ -6724,7 +6714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42">
       <c r="A27" s="16" t="s">
         <v>112</v>
       </c>
@@ -6840,7 +6830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42">
       <c r="A28" s="16" t="s">
         <v>114</v>
       </c>
@@ -6956,7 +6946,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42">
       <c r="A29" s="16" t="s">
         <v>116</v>
       </c>
@@ -7072,7 +7062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42">
       <c r="A30" s="16" t="s">
         <v>118</v>
       </c>
@@ -7200,7 +7190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42">
       <c r="A31" s="16" t="s">
         <v>120</v>
       </c>
@@ -7316,7 +7306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42">
       <c r="A32" s="16" t="s">
         <v>122</v>
       </c>
@@ -7444,7 +7434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42">
       <c r="A33" s="16" t="s">
         <v>124</v>
       </c>
@@ -7572,7 +7562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42">
       <c r="A34" s="16" t="s">
         <v>126</v>
       </c>
@@ -7700,7 +7690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42">
       <c r="A35" s="16" t="s">
         <v>128</v>
       </c>
@@ -7828,7 +7818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42">
       <c r="A36" s="16" t="s">
         <v>130</v>
       </c>
@@ -7944,7 +7934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42">
       <c r="A37" s="16" t="s">
         <v>132</v>
       </c>
@@ -8072,7 +8062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38" s="16" t="s">
         <v>134</v>
       </c>
@@ -8200,7 +8190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42">
       <c r="A39" s="16" t="s">
         <v>136</v>
       </c>
@@ -8328,7 +8318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42">
       <c r="A40" s="16" t="s">
         <v>138</v>
       </c>
@@ -8456,7 +8446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42">
       <c r="A41" s="16" t="s">
         <v>140</v>
       </c>
@@ -8584,7 +8574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42">
       <c r="A42" s="16" t="s">
         <v>142</v>
       </c>
@@ -8712,7 +8702,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42">
       <c r="A43" s="16" t="s">
         <v>144</v>
       </c>
@@ -8828,7 +8818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42">
       <c r="A44" s="16" t="s">
         <v>146</v>
       </c>
@@ -8944,7 +8934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42">
       <c r="A45" s="16" t="s">
         <v>148</v>
       </c>
@@ -9072,7 +9062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42">
       <c r="A46" s="16" t="s">
         <v>150</v>
       </c>
@@ -9188,7 +9178,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42">
       <c r="A47" s="16" t="s">
         <v>152</v>
       </c>
@@ -9304,7 +9294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42">
       <c r="A48" s="16" t="s">
         <v>154</v>
       </c>
@@ -9432,7 +9422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42">
       <c r="A49" s="16" t="s">
         <v>156</v>
       </c>
@@ -9560,7 +9550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42">
       <c r="A50" s="16" t="s">
         <v>158</v>
       </c>
@@ -9688,7 +9678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42">
       <c r="A51" s="16" t="s">
         <v>160</v>
       </c>
@@ -9804,7 +9794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42">
       <c r="A52" s="16" t="s">
         <v>162</v>
       </c>
@@ -9932,7 +9922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42">
       <c r="A53" s="16" t="s">
         <v>164</v>
       </c>
@@ -10060,7 +10050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42">
       <c r="A54" s="16" t="s">
         <v>166</v>
       </c>
@@ -10176,7 +10166,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42">
       <c r="A55" s="16" t="s">
         <v>168</v>
       </c>
@@ -10292,7 +10282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42">
       <c r="A56" s="16" t="s">
         <v>170</v>
       </c>
@@ -10420,7 +10410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42">
       <c r="A57" s="16" t="s">
         <v>172</v>
       </c>
@@ -10548,7 +10538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42">
       <c r="A58" s="16" t="s">
         <v>174</v>
       </c>
@@ -10676,7 +10666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42">
       <c r="A59" s="16" t="s">
         <v>176</v>
       </c>
@@ -10804,7 +10794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42">
       <c r="A60" s="16" t="s">
         <v>178</v>
       </c>
@@ -10932,7 +10922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42">
       <c r="A61" s="16" t="s">
         <v>180</v>
       </c>
@@ -11060,7 +11050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42">
       <c r="A62" s="16" t="s">
         <v>182</v>
       </c>
@@ -11188,7 +11178,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42">
       <c r="A63" s="16" t="s">
         <v>184</v>
       </c>
@@ -11304,7 +11294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42">
       <c r="A64" s="16" t="s">
         <v>186</v>
       </c>
@@ -11432,7 +11422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42">
       <c r="A65" s="16" t="s">
         <v>188</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42">
       <c r="A66" s="16" t="s">
         <v>64</v>
       </c>
@@ -11688,7 +11678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42">
       <c r="A67" s="16" t="s">
         <v>68</v>
       </c>
@@ -11816,7 +11806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42">
       <c r="A68" s="16" t="s">
         <v>73</v>
       </c>
@@ -11944,7 +11934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42">
       <c r="A69" s="16" t="s">
         <v>76</v>
       </c>
@@ -12072,7 +12062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42">
       <c r="A70" s="16" t="s">
         <v>80</v>
       </c>
@@ -12200,7 +12190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42">
       <c r="A71" s="16" t="s">
         <v>84</v>
       </c>
@@ -12328,7 +12318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42">
       <c r="A72" s="16" t="s">
         <v>89</v>
       </c>
@@ -12456,7 +12446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42">
       <c r="A73" s="16" t="s">
         <v>92</v>
       </c>
@@ -12584,7 +12574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42">
       <c r="A74" s="16" t="s">
         <v>97</v>
       </c>
@@ -12712,7 +12702,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42">
       <c r="A75" s="16" t="s">
         <v>100</v>
       </c>
@@ -12840,7 +12830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42">
       <c r="A76" s="16" t="s">
         <v>105</v>
       </c>
@@ -12968,7 +12958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42">
       <c r="A77" s="16" t="s">
         <v>108</v>
       </c>
@@ -13096,7 +13086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42">
       <c r="A78" s="16" t="s">
         <v>113</v>
       </c>
@@ -13212,7 +13202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42">
       <c r="A79" s="16" t="s">
         <v>116</v>
       </c>
@@ -13340,7 +13330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42">
       <c r="A80" s="16" t="s">
         <v>121</v>
       </c>
@@ -13468,7 +13458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="A81" s="16" t="s">
         <v>124</v>
       </c>
@@ -13596,7 +13586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="A82" s="16" t="s">
         <v>129</v>
       </c>
@@ -13724,7 +13714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42">
       <c r="A83" s="16" t="s">
         <v>132</v>
       </c>
@@ -13852,7 +13842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42">
       <c r="A84" s="16" t="s">
         <v>136</v>
       </c>
@@ -13968,7 +13958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" s="16" t="s">
         <v>140</v>
       </c>
@@ -14096,7 +14086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42">
       <c r="A86" s="16" t="s">
         <v>144</v>
       </c>
@@ -14212,7 +14202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="A87" s="16" t="s">
         <v>148</v>
       </c>
@@ -14340,7 +14330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42">
       <c r="A88" s="16" t="s">
         <v>152</v>
       </c>
@@ -14468,7 +14458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="A89" s="16" t="s">
         <v>156</v>
       </c>
@@ -14596,7 +14586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="A90" s="16" t="s">
         <v>160</v>
       </c>
@@ -14724,7 +14714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42">
       <c r="A91" s="16" t="s">
         <v>164</v>
       </c>
@@ -14852,7 +14842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="A92" s="16" t="s">
         <v>169</v>
       </c>
@@ -14980,7 +14970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="A93" s="16" t="s">
         <v>172</v>
       </c>
@@ -15108,7 +15098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="A94" s="16" t="s">
         <v>176</v>
       </c>
@@ -15236,7 +15226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="A95" s="16" t="s">
         <v>180</v>
       </c>
@@ -15364,7 +15354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="A96" s="16" t="s">
         <v>185</v>
       </c>
@@ -15492,7 +15482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:42">
       <c r="A97" s="16" t="s">
         <v>188</v>
       </c>
@@ -15620,7 +15610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42">
       <c r="A98" s="16" t="s">
         <v>67</v>
       </c>
@@ -15748,7 +15738,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42">
       <c r="A99" s="16" t="s">
         <v>76</v>
       </c>
@@ -15876,7 +15866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42">
       <c r="A100" s="16" t="s">
         <v>84</v>
       </c>
@@ -16004,7 +15994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42">
       <c r="A101" s="16" t="s">
         <v>100</v>
       </c>
@@ -16132,7 +16122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42">
       <c r="A102" s="16" t="s">
         <v>106</v>
       </c>
@@ -16260,7 +16250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:42">
       <c r="A103" s="16" t="s">
         <v>116</v>
       </c>
@@ -16388,7 +16378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42">
       <c r="A104" s="16" t="s">
         <v>124</v>
       </c>
@@ -16516,7 +16506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42">
       <c r="A105" s="16" t="s">
         <v>130</v>
       </c>
@@ -16644,7 +16634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42">
       <c r="A106" s="16" t="s">
         <v>140</v>
       </c>
@@ -16772,7 +16762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:42">
       <c r="A107" s="16" t="s">
         <v>148</v>
       </c>
@@ -16900,7 +16890,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:42">
       <c r="A108" s="16" t="s">
         <v>156</v>
       </c>
@@ -17028,7 +17018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:42">
       <c r="A109" s="16" t="s">
         <v>164</v>
       </c>
@@ -17156,7 +17146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:42">
       <c r="A110" s="16" t="s">
         <v>172</v>
       </c>
@@ -17284,7 +17274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:42">
       <c r="A111" s="16" t="s">
         <v>179</v>
       </c>
@@ -17412,7 +17402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:42">
       <c r="A112" s="16" t="s">
         <v>188</v>
       </c>
@@ -17540,7 +17530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:42">
       <c r="A113" s="16" t="s">
         <v>76</v>
       </c>
@@ -17668,7 +17658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:42">
       <c r="A114" s="16" t="s">
         <v>92</v>
       </c>
@@ -17796,7 +17786,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:42">
       <c r="A115" s="16" t="s">
         <v>106</v>
       </c>
@@ -17924,7 +17914,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:42">
       <c r="A116" s="16" t="s">
         <v>124</v>
       </c>
@@ -18052,7 +18042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:42">
       <c r="A117" s="16" t="s">
         <v>140</v>
       </c>
@@ -18180,7 +18170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:42">
       <c r="A118" s="16" t="s">
         <v>156</v>
       </c>
@@ -18308,7 +18298,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:42">
       <c r="A119" s="16" t="s">
         <v>167</v>
       </c>
@@ -18436,7 +18426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:42">
       <c r="A120" s="16" t="s">
         <v>188</v>
       </c>
@@ -18564,7 +18554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:42">
       <c r="A121" s="16" t="s">
         <v>92</v>
       </c>
@@ -18692,7 +18682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:42">
       <c r="A122" s="16" t="s">
         <v>124</v>
       </c>
@@ -18820,7 +18810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:42">
       <c r="A123" s="16" t="s">
         <v>156</v>
       </c>
@@ -18948,7 +18938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:42">
       <c r="A124" s="16" t="s">
         <v>188</v>
       </c>
@@ -19076,7 +19066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:42">
       <c r="A125" s="16" t="s">
         <v>124</v>
       </c>
@@ -19204,7 +19194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:42">
       <c r="A126" s="16" t="s">
         <v>188</v>
       </c>
@@ -19332,7 +19322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:42">
       <c r="A127" s="16" t="s">
         <v>188</v>
       </c>
@@ -19460,7 +19450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:42">
       <c r="A128" t="s">
         <v>190</v>
       </c>
@@ -19477,7 +19467,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29">
       <c r="K130">
         <f>MAX(Tabella1[ACE.1])</f>
         <v>41</v>
@@ -19487,7 +19477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29">
       <c r="A131" t="s">
         <v>193</v>
       </c>
@@ -19495,7 +19485,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29">
       <c r="A132" t="s">
         <v>194</v>
       </c>
@@ -19503,7 +19493,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29">
       <c r="A133" t="s">
         <v>195</v>
       </c>
@@ -19511,7 +19501,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29">
       <c r="A134" t="s">
         <v>196</v>
       </c>
@@ -19520,7 +19510,7 @@
         <v>19.50793650793651</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29">
       <c r="A136" t="s">
         <v>191</v>
       </c>
@@ -19532,7 +19522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29">
       <c r="A137" t="s">
         <v>192</v>
       </c>
@@ -19540,7 +19530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29">
       <c r="A138" t="s">
         <v>197</v>
       </c>
@@ -19549,7 +19539,7 @@
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29">
       <c r="A139" s="20" t="s">
         <v>198</v>
       </c>
@@ -19557,7 +19547,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29">
       <c r="A140" s="20" t="s">
         <v>199</v>
       </c>
@@ -19565,7 +19555,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29">
       <c r="A141" s="20" t="s">
         <v>200</v>
       </c>
@@ -19590,7 +19580,7 @@
       <selection activeCell="A2" sqref="A2:G127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
@@ -19600,7 +19590,7 @@
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -19623,7 +19613,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Lukas Lacko</v>
@@ -19653,7 +19643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Leonardo Mayer</v>
@@ -19683,7 +19673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Marcos Baghdatis</v>
@@ -19713,7 +19703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Dmitry Tursunov</v>
@@ -19743,7 +19733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Juan Monaco</v>
@@ -19773,7 +19763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Santiago Giraldo</v>
@@ -19803,7 +19793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Dudi Sela</v>
@@ -19833,7 +19823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Fabio Fognini</v>
@@ -19863,7 +19853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>David Guez</v>
@@ -19893,7 +19883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Nikolay Davydenko</v>
@@ -19923,7 +19913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Pablo Carreno Busta</v>
@@ -19953,7 +19943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tommy Robredo</v>
@@ -19983,7 +19973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Samuel Groth</v>
@@ -20013,7 +20003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Nicolas Mahut</v>
@@ -20043,7 +20033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Alejandro Falla</v>
@@ -20073,7 +20063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Stanislas Wawrinka</v>
@@ -20103,7 +20093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Alejandro Gonzalez</v>
@@ -20133,7 +20123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Steve Johnson</v>
@@ -20163,7 +20153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Ricardas Berankis</v>
@@ -20193,7 +20183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jeremy Chardy</v>
@@ -20223,7 +20213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jordan Thompson</v>
@@ -20253,7 +20243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Albert Ramos</v>
@@ -20283,7 +20273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Florian Mayer</v>
@@ -20313,7 +20303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Mikhail Youzhny</v>
@@ -20343,7 +20333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Guillermo Garcia-Lopez</v>
@@ -20373,7 +20363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Carlos Berlocq</v>
@@ -20403,7 +20393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Dominic Thiem</v>
@@ -20433,7 +20423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Kevin Anderson</v>
@@ -20463,7 +20453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Ivo Karlovic</v>
@@ -20493,7 +20483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jan Hajek</v>
@@ -20523,7 +20513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Di Wu</v>
@@ -20553,7 +20543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tomas Berdych</v>
@@ -20583,7 +20573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>James Duckworth</v>
@@ -20613,7 +20603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Radek Stepanek</v>
@@ -20643,7 +20633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Teymuraz Gabashvili</v>
@@ -20673,7 +20663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Fernando Verdasco</v>
@@ -20703,7 +20693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Daniel Brands</v>
@@ -20733,7 +20723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Marin Cilic</v>
@@ -20763,7 +20753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Thomaz Bellucci</v>
@@ -20793,7 +20783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jo-Wilfried Tsonga</v>
@@ -20823,7 +20813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Martin Klizan</v>
@@ -20853,7 +20843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Blaz Rola</v>
@@ -20883,7 +20873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Michal Przysiezny</v>
@@ -20913,7 +20903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Stephane Robert</v>
@@ -20943,7 +20933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Somdev Devvarman</v>
@@ -20973,7 +20963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Michael Berrer</v>
@@ -21003,7 +20993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Vincent Millot</v>
@@ -21033,7 +21023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Andy Murray</v>
@@ -21063,7 +21053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Rhyne Williams</v>
@@ -21093,7 +21083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Roberto Bautista Agut</v>
@@ -21123,7 +21113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Nick Kyrgios</v>
@@ -21153,7 +21143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Benoit Paire</v>
@@ -21183,7 +21173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Bradley Klahn</v>
@@ -21213,7 +21203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jimmy Wang</v>
@@ -21243,7 +21233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Peter Gojowczyk</v>
@@ -21273,7 +21263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Milos Raonic</v>
@@ -21303,7 +21293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Marinko Matosevic</v>
@@ -21333,7 +21323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Dusan Lajovic</v>
@@ -21363,7 +21353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Robin Haase</v>
@@ -21393,7 +21383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Andreas Seppi</v>
@@ -21423,7 +21413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Ryan Harrison</v>
@@ -21453,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tobias Kamke</v>
@@ -21483,7 +21473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Thanasi Kokkinakis</v>
@@ -21513,7 +21503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Rafael Nadal</v>
@@ -21543,7 +21533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Leonardo Mayer</v>
@@ -21573,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Dmitry Tursunov</v>
@@ -21603,7 +21593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Sam Querrey</v>
@@ -21633,7 +21623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Fabio Fognini</v>
@@ -21663,7 +21653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Nikolay Davydenko</v>
@@ -21693,7 +21683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tommy Robredo</v>
@@ -21723,7 +21713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Matthew Ebden</v>
@@ -21753,7 +21743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Stanislas Wawrinka</v>
@@ -21783,7 +21773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Adrian Mannarino</v>
@@ -21813,7 +21803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jeremy Chardy</v>
@@ -21843,7 +21833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Pablo Andujar</v>
@@ -21873,7 +21863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Mikhail Youzhny</v>
@@ -21903,7 +21893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Edouard Roger-Vasselin</v>
@@ -21933,7 +21923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Kevin Anderson</v>
@@ -21963,7 +21953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Damir Dzumhur</v>
@@ -21993,7 +21983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tomas Berdych</v>
@@ -22023,7 +22013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Blaz Kavcic</v>
@@ -22053,7 +22043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Fernando Verdasco</v>
@@ -22083,7 +22073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Marin Cilic</v>
@@ -22113,7 +22103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jo-Wilfried Tsonga</v>
@@ -22143,7 +22133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Blaz Rola</v>
@@ -22173,7 +22163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Stephane Robert</v>
@@ -22203,7 +22193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Michael Berrer</v>
@@ -22233,7 +22223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Andy Murray</v>
@@ -22263,7 +22253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Roberto Bautista Agut</v>
@@ -22293,7 +22283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Benoit Paire</v>
@@ -22323,7 +22313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Yen-Hsun Lu</v>
@@ -22353,7 +22343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Milos Raonic</v>
@@ -22383,7 +22373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Dusan Lajovic</v>
@@ -22413,7 +22403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Andreas Seppi</v>
@@ -22443,7 +22433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jack Sock</v>
@@ -22473,7 +22463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Rafael Nadal</v>
@@ -22503,7 +22493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Denis Istomin</v>
@@ -22533,7 +22523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Fabio Fognini</v>
@@ -22563,7 +22553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tommy Robredo</v>
@@ -22593,7 +22583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jeremy Chardy</v>
@@ -22623,7 +22613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Florian Mayer</v>
@@ -22653,7 +22643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Kevin Anderson</v>
@@ -22683,7 +22673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tomas Berdych</v>
@@ -22713,7 +22703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Teymuraz Gabashvili</v>
@@ -22743,7 +22733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jo-Wilfried Tsonga</v>
@@ -22773,7 +22763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Stephane Robert</v>
@@ -22803,7 +22793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Andy Murray</v>
@@ -22833,7 +22823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Benoit Paire</v>
@@ -22863,7 +22853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Milos Raonic</v>
@@ -22893,7 +22883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Donald Young</v>
@@ -22923,7 +22913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Rafael Nadal</v>
@@ -22953,7 +22943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Fabio Fognini</v>
@@ -22983,7 +22973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Stanislas Wawrinka</v>
@@ -23013,7 +23003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Florian Mayer</v>
@@ -23043,7 +23033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tomas Berdych</v>
@@ -23073,7 +23063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Jo-Wilfried Tsonga</v>
@@ -23103,7 +23093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Andy Murray</v>
@@ -23133,7 +23123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Grigor Dimitrov</v>
@@ -23163,7 +23153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Rafael Nadal</v>
@@ -23193,7 +23183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Stanislas Wawrinka</v>
@@ -23223,7 +23213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tomas Berdych</v>
@@ -23253,7 +23243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Andy Murray</v>
@@ -23283,7 +23273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Rafael Nadal</v>
@@ -23313,7 +23303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Tomas Berdych</v>
@@ -23343,7 +23333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Rafael Nadal</v>
@@ -23373,7 +23363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="str">
         <f>Tabella1[[#This Row],[Player1]]</f>
         <v>Rafael Nadal</v>
@@ -23419,7 +23409,7 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
@@ -23429,7 +23419,7 @@
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -23452,7 +23442,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Novak Djokovic</v>
@@ -23482,7 +23472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Albert Montanes</v>
@@ -23512,7 +23502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Denis Istomin</v>
@@ -23542,7 +23532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Michael Russell</v>
@@ -23572,7 +23562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Ernests Gulbis</v>
@@ -23602,7 +23592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Sam Querrey</v>
@@ -23632,7 +23622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jarkko Nieminen</v>
@@ -23662,7 +23652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Alex Bogomolov Jr.</v>
@@ -23691,7 +23681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Richard Gasquet</v>
@@ -23721,7 +23711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Lukasz Kubot</v>
@@ -23751,7 +23741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Julien Benneteau</v>
@@ -23781,7 +23771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Lukas Rosol</v>
@@ -23811,7 +23801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Vasek Pospisil</v>
@@ -23841,7 +23831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Matthew Ebden</v>
@@ -23871,7 +23861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Mikhail Kukushkin</v>
@@ -23901,7 +23891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Andrey Golubev</v>
@@ -23931,7 +23921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>David Ferrer</v>
@@ -23961,7 +23951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Adrian Mannarino</v>
@@ -23991,7 +23981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Alexandr Dolgopolov</v>
@@ -24021,7 +24011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jesse Huta Galung</v>
@@ -24051,7 +24041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jerzy Janowicz</v>
@@ -24081,7 +24071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Pablo Andujar</v>
@@ -24111,7 +24101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Denis Kudla</v>
@@ -24141,7 +24131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jan-Lennard Struff</v>
@@ -24171,7 +24161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Tommy Haas</v>
@@ -24201,7 +24191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Edouard Roger-Vasselin</v>
@@ -24231,7 +24221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Joao Sousa</v>
@@ -24261,7 +24251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jiri Vesely</v>
@@ -24291,7 +24281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Ivan Dodig</v>
@@ -24321,7 +24311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Damir Dzumhur</v>
@@ -24351,7 +24341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Kenny De Schepper</v>
@@ -24381,7 +24371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Aleksandr Nedovyesov</v>
@@ -24411,7 +24401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Roger Federer</v>
@@ -24441,7 +24431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Blaz Kavcic</v>
@@ -24471,7 +24461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Sergiy Stakhovsky</v>
@@ -24501,7 +24491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Ze Zhang</v>
@@ -24531,7 +24521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Gilles Simon</v>
@@ -24561,7 +24551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Marcel Granollers</v>
@@ -24591,7 +24581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Julian Reister</v>
@@ -24621,7 +24611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Filippo Volandri</v>
@@ -24651,7 +24641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>John Isner</v>
@@ -24681,7 +24671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Federico Delbonis</v>
@@ -24711,7 +24701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Horacio Zeballos</v>
@@ -24741,7 +24731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Aljaz Bedene</v>
@@ -24771,7 +24761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Feliciano Lopez</v>
@@ -24801,7 +24791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Michael Llodra</v>
@@ -24831,7 +24821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Wayne Odesnik</v>
@@ -24861,7 +24851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Go Soeda</v>
@@ -24891,7 +24881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Juan Martin Del Potro</v>
@@ -24921,7 +24911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Tim Smyczek</v>
@@ -24951,7 +24941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Benjamin Becker</v>
@@ -24981,7 +24971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Frank Dancevic</v>
@@ -25011,7 +25001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Grigor Dimitrov</v>
@@ -25041,7 +25031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Yen-Hsun Lu</v>
@@ -25071,7 +25061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Victor Hanescu</v>
@@ -25101,7 +25091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Daniel Gimeno-Traver</v>
@@ -25131,7 +25121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Kei Nishikori</v>
@@ -25161,7 +25151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Lucas Pouille</v>
@@ -25191,7 +25181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Donald Young</v>
@@ -25221,7 +25211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Lleyton Hewitt</v>
@@ -25251,7 +25241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Gael Monfils</v>
@@ -25281,7 +25271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jack Sock</v>
@@ -25311,7 +25301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Igor Sijsling</v>
@@ -25341,7 +25331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Bernard Tomic</v>
@@ -25371,7 +25361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Novak Djokovic</v>
@@ -25401,7 +25391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Denis Istomin</v>
@@ -25431,7 +25421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Ernests Gulbis</v>
@@ -25461,7 +25451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jarkko Nieminen</v>
@@ -25491,7 +25481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Richard Gasquet</v>
@@ -25521,7 +25511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Julien Benneteau</v>
@@ -25551,7 +25541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Vasek Pospisil</v>
@@ -25581,7 +25571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Alejandro Falla</v>
@@ -25611,7 +25601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>David Ferrer</v>
@@ -25641,7 +25631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Alexandr Dolgopolov</v>
@@ -25671,7 +25661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jerzy Janowicz</v>
@@ -25701,7 +25691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Florian Mayer</v>
@@ -25731,7 +25721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Guillermo Garcia-Lopez</v>
@@ -25761,7 +25751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Dominic Thiem</v>
@@ -25791,7 +25781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Ivan Dodig</v>
@@ -25821,7 +25811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Kenny De Schepper</v>
@@ -25851,7 +25841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Roger Federer</v>
@@ -25881,7 +25871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Teymuraz Gabashvili</v>
@@ -25911,7 +25901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Gilles Simon</v>
@@ -25941,7 +25931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Thomaz Bellucci</v>
@@ -25971,7 +25961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Martin Klizan</v>
@@ -26001,7 +25991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Michal Przysiezny</v>
@@ -26031,7 +26021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Feliciano Lopez</v>
@@ -26061,7 +26051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Vincent Millot</v>
@@ -26091,7 +26081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Juan Martin Del Potro</v>
@@ -26121,7 +26111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Nick Kyrgios</v>
@@ -26151,7 +26141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Grigor Dimitrov</v>
@@ -26181,7 +26171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Victor Hanescu</v>
@@ -26211,7 +26201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Kei Nishikori</v>
@@ -26241,7 +26231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Donald Young</v>
@@ -26271,7 +26261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Gael Monfils</v>
@@ -26301,7 +26291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Thanasi Kokkinakis</v>
@@ -26331,7 +26321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Novak Djokovic</v>
@@ -26361,7 +26351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Sam Querrey</v>
@@ -26391,7 +26381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Richard Gasquet</v>
@@ -26421,7 +26411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>David Ferrer</v>
@@ -26451,7 +26441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Jerzy Janowicz</v>
@@ -26481,7 +26471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Edouard Roger-Vasselin</v>
@@ -26511,7 +26501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Damir Dzumhur</v>
@@ -26541,7 +26531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Roger Federer</v>
@@ -26571,7 +26561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Gilles Simon</v>
@@ -26601,7 +26591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Martin Klizan</v>
@@ -26631,7 +26621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Feliciano Lopez</v>
@@ -26661,7 +26651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Roberto Bautista Agut</v>
@@ -26691,7 +26681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Grigor Dimitrov</v>
@@ -26721,7 +26711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Kei Nishikori</v>
@@ -26751,7 +26741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Gael Monfils</v>
@@ -26781,7 +26771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Novak Djokovic</v>
@@ -26811,7 +26801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Tommy Robredo</v>
@@ -26841,7 +26831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>David Ferrer</v>
@@ -26871,7 +26861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Kevin Anderson</v>
@@ -26901,7 +26891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Roger Federer</v>
@@ -26931,7 +26921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Stephane Robert</v>
@@ -26961,7 +26951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Roberto Bautista Agut</v>
@@ -26991,7 +26981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Kei Nishikori</v>
@@ -27021,7 +27011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Novak Djokovic</v>
@@ -27051,7 +27041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>David Ferrer</v>
@@ -27081,7 +27071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Roger Federer</v>
@@ -27111,7 +27101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Grigor Dimitrov</v>
@@ -27141,7 +27131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Stanislas Wawrinka</v>
@@ -27171,7 +27161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Roger Federer</v>
@@ -27201,7 +27191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="str">
         <f>Tabella1[[#This Row],[Player2]]</f>
         <v>Stanislas Wawrinka</v>
@@ -27243,11 +27233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView topLeftCell="F157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F148" workbookViewId="0">
       <selection activeCell="O143" sqref="O143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
@@ -27267,20 +27257,20 @@
     <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J1" s="111" t="s">
+    <row r="1" spans="1:18">
+      <c r="J1" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -27302,14 +27292,14 @@
       <c r="G2" t="s">
         <v>266</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -27357,7 +27347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -27411,7 +27401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -27465,7 +27455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -27519,7 +27509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -27563,7 +27553,7 @@
       <c r="Q7" s="67"/>
       <c r="R7" s="67"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -27587,7 +27577,7 @@
       </c>
       <c r="H8" s="89"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -27622,7 +27612,7 @@
         <v>0.43246541903986979</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -27645,14 +27635,14 @@
         <v>2</v>
       </c>
       <c r="H10" s="89"/>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -27688,7 +27678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -27727,7 +27717,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -27767,7 +27757,7 @@
       </c>
       <c r="N13" s="50"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -27806,7 +27796,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -27845,7 +27835,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -27869,7 +27859,7 @@
       </c>
       <c r="H16" s="89"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -27905,7 +27895,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -27939,12 +27929,12 @@
         <f t="shared" si="3"/>
         <v>20.030681437352847</v>
       </c>
-      <c r="M18" s="124">
+      <c r="M18" s="118">
         <f>SUM(K18:L20)</f>
         <v>84.160199190082096</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -27978,9 +27968,9 @@
         <f t="shared" si="3"/>
         <v>26.786563288906226</v>
       </c>
-      <c r="M19" s="125"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="119"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -28014,9 +28004,9 @@
         <f t="shared" si="3"/>
         <v>0.94657865460526758</v>
       </c>
-      <c r="M20" s="126"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="120"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -28040,7 +28030,7 @@
       </c>
       <c r="H21" s="89"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>156</v>
       </c>
@@ -28065,7 +28055,7 @@
       <c r="H22" s="89"/>
       <c r="J22" s="44"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -28091,7 +28081,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="62"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -28115,7 +28105,7 @@
       </c>
       <c r="H24" s="89"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -28139,7 +28129,7 @@
       </c>
       <c r="H25" s="89"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -28166,7 +28156,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>189</v>
       </c>
@@ -28190,7 +28180,7 @@
       </c>
       <c r="H27" s="89"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>129</v>
       </c>
@@ -28214,7 +28204,7 @@
       </c>
       <c r="H28" s="89"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -28237,19 +28227,19 @@
         <v>14</v>
       </c>
       <c r="H29" s="89"/>
-      <c r="J29" s="106" t="s">
+      <c r="J29" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="K29" s="120" t="s">
+      <c r="K29" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="L29" s="106" t="s">
+      <c r="L29" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -28272,13 +28262,13 @@
         <v>9</v>
       </c>
       <c r="H30" s="89"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="108"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -28307,13 +28297,13 @@
       <c r="K31" s="72">
         <v>15.26</v>
       </c>
-      <c r="L31" s="105" t="s">
+      <c r="L31" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>166</v>
       </c>
@@ -28342,13 +28332,13 @@
       <c r="K32" s="72">
         <v>20.03</v>
       </c>
-      <c r="L32" s="105" t="s">
+      <c r="L32" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -28377,13 +28367,13 @@
       <c r="K33" s="72">
         <v>20.41</v>
       </c>
-      <c r="L33" s="105" t="s">
+      <c r="L33" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -28412,13 +28402,13 @@
       <c r="K34" s="72">
         <v>26.79</v>
       </c>
-      <c r="L34" s="105" t="s">
+      <c r="L34" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -28447,13 +28437,13 @@
       <c r="K35" s="72">
         <v>0.72</v>
       </c>
-      <c r="L35" s="105" t="s">
+      <c r="L35" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -28482,13 +28472,13 @@
       <c r="K36" s="72">
         <v>0.95</v>
       </c>
-      <c r="L36" s="105" t="s">
+      <c r="L36" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -28512,7 +28502,7 @@
       </c>
       <c r="H37" s="89"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -28539,7 +28529,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -28566,7 +28556,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -28590,7 +28580,7 @@
       </c>
       <c r="H40" s="89"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -28621,7 +28611,7 @@
         <v>61.384920634920633</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -28644,15 +28634,15 @@
         <v>19</v>
       </c>
       <c r="H42" s="89"/>
-      <c r="J42" s="111" t="s">
+      <c r="J42" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" thickBot="1">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -28675,14 +28665,14 @@
         <v>12</v>
       </c>
       <c r="H43" s="89"/>
-      <c r="J43" s="112" t="s">
+      <c r="J43" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112"/>
-      <c r="M43" s="112"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" thickBot="1">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -28728,7 +28718,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -28782,7 +28772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -28836,7 +28826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15.75" thickBot="1">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -28890,7 +28880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15.75" thickBot="1">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -28929,7 +28919,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -28953,7 +28943,7 @@
       </c>
       <c r="H49" s="89"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -28988,7 +28978,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -29011,14 +29001,14 @@
         <v>10</v>
       </c>
       <c r="H51" s="89"/>
-      <c r="J51" s="112" t="s">
+      <c r="J51" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="K51" s="112"/>
-      <c r="L51" s="112"/>
-      <c r="M51" s="112"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -29052,7 +29042,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -29091,7 +29081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -29130,7 +29120,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -29169,7 +29159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -29208,7 +29198,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -29232,7 +29222,7 @@
       </c>
       <c r="H57" s="89"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -29268,7 +29258,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>176</v>
       </c>
@@ -29302,12 +29292,12 @@
         <f t="shared" si="7"/>
         <v>1.5652173913043479</v>
       </c>
-      <c r="M59" s="121">
+      <c r="M59" s="122">
         <f>SUM(K59:L61)</f>
         <v>3.9605968685847359</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -29341,9 +29331,9 @@
         <f t="shared" si="7"/>
         <v>9.6899224806201556E-2</v>
       </c>
-      <c r="M60" s="122"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M60" s="123"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -29377,9 +29367,9 @@
         <f t="shared" si="7"/>
         <v>0.31818181818181818</v>
       </c>
-      <c r="M61" s="123"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M61" s="124"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -29403,7 +29393,7 @@
       </c>
       <c r="H62" s="89"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -29430,7 +29420,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -29457,7 +29447,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -29484,7 +29474,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -29508,7 +29498,7 @@
       </c>
       <c r="H66" s="89"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -29531,15 +29521,15 @@
         <v>10</v>
       </c>
       <c r="H67" s="89"/>
-      <c r="J67" s="111" t="s">
+      <c r="J67" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="K67" s="111"/>
-      <c r="L67" s="111"/>
-      <c r="M67" s="111"/>
-      <c r="N67" s="111"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K67" s="117"/>
+      <c r="L67" s="117"/>
+      <c r="M67" s="117"/>
+      <c r="N67" s="117"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" thickBot="1">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -29562,15 +29552,15 @@
         <v>0</v>
       </c>
       <c r="H68" s="89"/>
-      <c r="J68" s="112" t="s">
+      <c r="J68" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="K68" s="112"/>
-      <c r="L68" s="112"/>
-      <c r="M68" s="112"/>
-      <c r="N68" s="112"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K68" s="113"/>
+      <c r="L68" s="113"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="113"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" thickBot="1">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -29609,7 +29599,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -29653,7 +29643,7 @@
       </c>
       <c r="P70" s="53"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -29697,7 +29687,7 @@
       </c>
       <c r="P71" s="53"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -29741,7 +29731,7 @@
       </c>
       <c r="P72" s="53"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15.75" thickBot="1">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -29785,7 +29775,7 @@
       </c>
       <c r="P73" s="90"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -29809,7 +29799,7 @@
       </c>
       <c r="H74" s="89"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -29836,7 +29826,7 @@
       <c r="L75" s="53"/>
       <c r="M75" s="53"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -29860,7 +29850,7 @@
       </c>
       <c r="H76" s="89"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15.75" thickBot="1">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -29883,15 +29873,15 @@
         <v>11</v>
       </c>
       <c r="H77" s="89"/>
-      <c r="J77" s="112" t="s">
+      <c r="J77" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="K77" s="112"/>
-      <c r="L77" s="112"/>
-      <c r="M77" s="112"/>
-      <c r="N77" s="112"/>
-    </row>
-    <row r="78" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K77" s="113"/>
+      <c r="L77" s="113"/>
+      <c r="M77" s="113"/>
+      <c r="N77" s="113"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" thickBot="1">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -29930,7 +29920,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -29973,7 +29963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -30016,7 +30006,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15.75" thickBot="1">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -30059,7 +30049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="15.75" thickBot="1">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -30102,7 +30092,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>183</v>
       </c>
@@ -30126,7 +30116,7 @@
       </c>
       <c r="H83" s="89"/>
     </row>
-    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="15.75" thickBot="1">
       <c r="A84" t="s">
         <v>135</v>
       </c>
@@ -30150,7 +30140,7 @@
       </c>
       <c r="H84" s="89"/>
     </row>
-    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="15.75" thickBot="1">
       <c r="A85" t="s">
         <v>135</v>
       </c>
@@ -30189,7 +30179,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>135</v>
       </c>
@@ -30227,12 +30217,12 @@
         <f t="shared" si="10"/>
         <v>0.19944789510007202</v>
       </c>
-      <c r="N86" s="117">
+      <c r="N86" s="129">
         <f>SUM(K86:M88)</f>
         <v>1.7958762097529675</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -30270,9 +30260,9 @@
         <f t="shared" si="11"/>
         <v>2.214839424141571E-3</v>
       </c>
-      <c r="N87" s="118"/>
-    </row>
-    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N87" s="130"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" thickBot="1">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -30310,9 +30300,9 @@
         <f t="shared" si="12"/>
         <v>8.080808080808087E-2</v>
       </c>
-      <c r="N88" s="119"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N88" s="131"/>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>167</v>
       </c>
@@ -30341,7 +30331,7 @@
       <c r="M89" s="8"/>
       <c r="N89" s="78"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -30368,7 +30358,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -30395,7 +30385,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -30429,7 +30419,7 @@
       <c r="P92" s="95"/>
       <c r="Q92" s="95"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -30453,7 +30443,7 @@
       </c>
       <c r="H93" s="89"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -30477,7 +30467,7 @@
       </c>
       <c r="H94" s="89"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -30504,7 +30494,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -30528,7 +30518,7 @@
       </c>
       <c r="H96" s="89"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -30551,15 +30541,15 @@
         <v>3</v>
       </c>
       <c r="H97" s="89"/>
-      <c r="J97" s="111" t="s">
+      <c r="J97" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="K97" s="111"/>
-      <c r="L97" s="111"/>
-      <c r="M97" s="111"/>
-      <c r="N97" s="111"/>
-    </row>
-    <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K97" s="117"/>
+      <c r="L97" s="117"/>
+      <c r="M97" s="117"/>
+      <c r="N97" s="117"/>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" thickBot="1">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -30582,14 +30572,14 @@
         <v>7</v>
       </c>
       <c r="H98" s="89"/>
-      <c r="J98" s="112" t="s">
+      <c r="J98" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="K98" s="112"/>
-      <c r="L98" s="112"/>
-      <c r="M98" s="112"/>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K98" s="113"/>
+      <c r="L98" s="113"/>
+      <c r="M98" s="113"/>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" thickBot="1">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -30623,7 +30613,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -30662,7 +30652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>185</v>
       </c>
@@ -30701,7 +30691,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="15.75" thickBot="1">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -30740,7 +30730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="15.75" thickBot="1">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -30779,7 +30769,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -30803,7 +30793,7 @@
       </c>
       <c r="H104" s="89"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>75</v>
       </c>
@@ -30838,7 +30828,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>75</v>
       </c>
@@ -30862,7 +30852,7 @@
       </c>
       <c r="H106" s="89"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="15.75" thickBot="1">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -30885,14 +30875,14 @@
         <v>9</v>
       </c>
       <c r="H107" s="89"/>
-      <c r="J107" s="112" t="s">
+      <c r="J107" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="K107" s="112"/>
-      <c r="L107" s="112"/>
-      <c r="M107" s="112"/>
-    </row>
-    <row r="108" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K107" s="113"/>
+      <c r="L107" s="113"/>
+      <c r="M107" s="113"/>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" thickBot="1">
       <c r="A108" t="s">
         <v>100</v>
       </c>
@@ -30926,7 +30916,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>100</v>
       </c>
@@ -30965,7 +30955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -31004,7 +30994,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="15.75" thickBot="1">
       <c r="A111" t="s">
         <v>103</v>
       </c>
@@ -31043,7 +31033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="15.75" thickBot="1">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -31082,7 +31072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>101</v>
       </c>
@@ -31106,7 +31096,7 @@
       </c>
       <c r="H113" s="89"/>
     </row>
-    <row r="114" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="15.75" thickBot="1">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -31129,12 +31119,12 @@
         <v>7</v>
       </c>
       <c r="H114" s="89"/>
-      <c r="J114" s="112"/>
-      <c r="K114" s="112"/>
-      <c r="L114" s="112"/>
-      <c r="M114" s="112"/>
-    </row>
-    <row r="115" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J114" s="113"/>
+      <c r="K114" s="113"/>
+      <c r="L114" s="113"/>
+      <c r="M114" s="113"/>
+    </row>
+    <row r="115" spans="1:18" ht="15.75" thickBot="1">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -31170,7 +31160,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -31204,12 +31194,12 @@
         <f>(L100-L109)^2/L109</f>
         <v>1.8285714285714285</v>
       </c>
-      <c r="M116" s="127">
+      <c r="M116" s="114">
         <f>SUM(K116:L118)</f>
         <v>5.0793650793650791</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>143</v>
       </c>
@@ -31243,9 +31233,9 @@
         <f t="shared" si="15"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="M117" s="128"/>
-    </row>
-    <row r="118" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M117" s="115"/>
+    </row>
+    <row r="118" spans="1:18" ht="15.75" thickBot="1">
       <c r="A118" t="s">
         <v>102</v>
       </c>
@@ -31279,9 +31269,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M118" s="129"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M118" s="116"/>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>140</v>
       </c>
@@ -31305,7 +31295,7 @@
       </c>
       <c r="H119" s="89"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>140</v>
       </c>
@@ -31329,7 +31319,7 @@
       </c>
       <c r="H120" s="89"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -31352,15 +31342,15 @@
         <v>6</v>
       </c>
       <c r="H121" s="89"/>
-      <c r="J121" s="111" t="s">
+      <c r="J121" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="K121" s="111"/>
-      <c r="L121" s="111"/>
-      <c r="M121" s="111"/>
-      <c r="N121" s="111"/>
-    </row>
-    <row r="122" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K121" s="117"/>
+      <c r="L121" s="117"/>
+      <c r="M121" s="117"/>
+      <c r="N121" s="117"/>
+    </row>
+    <row r="122" spans="1:18" ht="15.75" thickBot="1">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -31383,14 +31373,14 @@
         <v>1</v>
       </c>
       <c r="H122" s="89"/>
-      <c r="J122" s="112" t="s">
+      <c r="J122" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="K122" s="112"/>
-      <c r="L122" s="112"/>
-      <c r="M122" s="112"/>
-    </row>
-    <row r="123" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K122" s="113"/>
+      <c r="L122" s="113"/>
+      <c r="M122" s="113"/>
+    </row>
+    <row r="123" spans="1:18" ht="15.75" thickBot="1">
       <c r="A123" t="s">
         <v>159</v>
       </c>
@@ -31436,7 +31426,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>159</v>
       </c>
@@ -31490,7 +31480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>70</v>
       </c>
@@ -31544,7 +31534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="15.75" thickBot="1">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -31598,7 +31588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="15.75" thickBot="1">
       <c r="A127" t="s">
         <v>83</v>
       </c>
@@ -31637,7 +31627,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>83</v>
       </c>
@@ -31661,7 +31651,7 @@
       </c>
       <c r="H128" s="89"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>175</v>
       </c>
@@ -31696,7 +31686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -31720,7 +31710,7 @@
       </c>
       <c r="H130" s="89"/>
     </row>
-    <row r="131" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="15.75" thickBot="1">
       <c r="A131" t="s">
         <v>175</v>
       </c>
@@ -31743,14 +31733,14 @@
         <v>12</v>
       </c>
       <c r="H131" s="89"/>
-      <c r="J131" s="112" t="s">
+      <c r="J131" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="K131" s="112"/>
-      <c r="L131" s="112"/>
-      <c r="M131" s="112"/>
-    </row>
-    <row r="132" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" thickBot="1">
       <c r="A132" t="s">
         <v>175</v>
       </c>
@@ -31784,7 +31774,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>123</v>
       </c>
@@ -31823,7 +31813,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -31862,7 +31852,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="15.75" thickBot="1">
       <c r="A135" t="s">
         <v>116</v>
       </c>
@@ -31901,7 +31891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="15.75" thickBot="1">
       <c r="A136" t="s">
         <v>116</v>
       </c>
@@ -31940,7 +31930,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="15.75" thickBot="1">
       <c r="A137" t="s">
         <v>116</v>
       </c>
@@ -31964,7 +31954,7 @@
       </c>
       <c r="H137" s="89"/>
     </row>
-    <row r="138" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="15.75" thickBot="1">
       <c r="A138" t="s">
         <v>116</v>
       </c>
@@ -32000,7 +31990,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>64</v>
       </c>
@@ -32034,12 +32024,12 @@
         <f>(L124-L133)^2/L133</f>
         <v>25.369918699186993</v>
       </c>
-      <c r="M139" s="127">
+      <c r="M139" s="114">
         <f>SUM(K139:L141)</f>
         <v>100.06033429278392</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -32073,9 +32063,9 @@
         <f t="shared" si="19"/>
         <v>19.517391304347825</v>
       </c>
-      <c r="M140" s="128"/>
-    </row>
-    <row r="141" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M140" s="115"/>
+    </row>
+    <row r="141" spans="1:14" ht="15.75" thickBot="1">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -32109,9 +32099,9 @@
         <f t="shared" si="20"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="M141" s="129"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M141" s="116"/>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -32135,7 +32125,7 @@
       </c>
       <c r="H142" s="89"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -32158,15 +32148,15 @@
         <v>3</v>
       </c>
       <c r="H143" s="89"/>
-      <c r="J143" s="111" t="s">
+      <c r="J143" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="K143" s="111"/>
-      <c r="L143" s="111"/>
-      <c r="M143" s="111"/>
-      <c r="N143" s="111"/>
-    </row>
-    <row r="144" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K143" s="117"/>
+      <c r="L143" s="117"/>
+      <c r="M143" s="117"/>
+      <c r="N143" s="117"/>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" thickBot="1">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -32189,15 +32179,15 @@
         <v>7</v>
       </c>
       <c r="H144" s="89"/>
-      <c r="J144" s="112" t="s">
+      <c r="J144" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="K144" s="112"/>
-      <c r="L144" s="112"/>
-      <c r="M144" s="112"/>
-      <c r="N144" s="112"/>
-    </row>
-    <row r="145" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K144" s="113"/>
+      <c r="L144" s="113"/>
+      <c r="M144" s="113"/>
+      <c r="N144" s="113"/>
+    </row>
+    <row r="145" spans="1:14" ht="15.75" thickBot="1">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -32236,7 +32226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>137</v>
       </c>
@@ -32279,7 +32269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>66</v>
       </c>
@@ -32322,7 +32312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="15.75" thickBot="1">
       <c r="A148" t="s">
         <v>136</v>
       </c>
@@ -32365,7 +32355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="15.75" thickBot="1">
       <c r="A149" t="s">
         <v>136</v>
       </c>
@@ -32408,7 +32398,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>174</v>
       </c>
@@ -32432,7 +32422,7 @@
       </c>
       <c r="H150" s="89"/>
     </row>
-    <row r="151" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="15.75" thickBot="1">
       <c r="A151" t="s">
         <v>142</v>
       </c>
@@ -32455,15 +32445,15 @@
         <v>5</v>
       </c>
       <c r="H151" s="89"/>
-      <c r="J151" s="130" t="s">
+      <c r="J151" s="132" t="s">
         <v>303</v>
       </c>
-      <c r="K151" s="130"/>
-      <c r="L151" s="130"/>
-      <c r="M151" s="130"/>
-      <c r="N151" s="130"/>
-    </row>
-    <row r="152" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K151" s="132"/>
+      <c r="L151" s="132"/>
+      <c r="M151" s="132"/>
+      <c r="N151" s="132"/>
+    </row>
+    <row r="152" spans="1:14" ht="15.75" thickBot="1">
       <c r="A152" t="s">
         <v>142</v>
       </c>
@@ -32502,7 +32492,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>142</v>
       </c>
@@ -32545,7 +32535,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>89</v>
       </c>
@@ -32588,7 +32578,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="15.75" thickBot="1">
       <c r="A155" t="s">
         <v>89</v>
       </c>
@@ -32631,7 +32621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="15.75" thickBot="1">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -32674,7 +32664,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="15.75" thickBot="1">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -32698,7 +32688,7 @@
       </c>
       <c r="H157" s="89"/>
     </row>
-    <row r="158" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="15.75" thickBot="1">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -32737,7 +32727,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>69</v>
       </c>
@@ -32775,12 +32765,12 @@
         <f t="shared" ref="M159" si="24">(M146-M153)^2/M153</f>
         <v>6.8995354239256672</v>
       </c>
-      <c r="N159" s="131">
+      <c r="N159" s="133">
         <f>SUM(K159:M161)</f>
         <v>103.21495487587744</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -32818,9 +32808,9 @@
         <f t="shared" si="25"/>
         <v>1.7447204968944168</v>
       </c>
-      <c r="N160" s="132"/>
-    </row>
-    <row r="161" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N160" s="134"/>
+    </row>
+    <row r="161" spans="1:18" ht="15.75" thickBot="1">
       <c r="A161" t="s">
         <v>146</v>
       </c>
@@ -32858,9 +32848,9 @@
         <f t="shared" si="26"/>
         <v>16</v>
       </c>
-      <c r="N161" s="133"/>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N161" s="135"/>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
         <v>91</v>
       </c>
@@ -32884,7 +32874,7 @@
       </c>
       <c r="H162" s="89"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>108</v>
       </c>
@@ -32912,7 +32902,7 @@
       </c>
       <c r="M163" s="72"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>108</v>
       </c>
@@ -32940,7 +32930,7 @@
       </c>
       <c r="K164" s="71"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -32968,7 +32958,7 @@
       </c>
       <c r="M165" s="72"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -32996,7 +32986,7 @@
       </c>
       <c r="M166" s="72"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -33023,7 +33013,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
         <v>162</v>
       </c>
@@ -33050,7 +33040,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -33077,7 +33067,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>88</v>
       </c>
@@ -33101,7 +33091,7 @@
       </c>
       <c r="H170" s="89"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>80</v>
       </c>
@@ -33124,15 +33114,15 @@
         <v>24</v>
       </c>
       <c r="H171" s="89"/>
-      <c r="J171" s="111" t="s">
+      <c r="J171" s="117" t="s">
         <v>300</v>
       </c>
-      <c r="K171" s="111"/>
-      <c r="L171" s="111"/>
-      <c r="M171" s="111"/>
-      <c r="N171" s="111"/>
-    </row>
-    <row r="172" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K171" s="117"/>
+      <c r="L171" s="117"/>
+      <c r="M171" s="117"/>
+      <c r="N171" s="117"/>
+    </row>
+    <row r="172" spans="1:18" ht="15.75" thickBot="1">
       <c r="A172" t="s">
         <v>80</v>
       </c>
@@ -33155,14 +33145,14 @@
         <v>5</v>
       </c>
       <c r="H172" s="89"/>
-      <c r="J172" s="112" t="s">
+      <c r="J172" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="K172" s="112"/>
-      <c r="L172" s="112"/>
-      <c r="M172" s="112"/>
-    </row>
-    <row r="173" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K172" s="113"/>
+      <c r="L172" s="113"/>
+      <c r="M172" s="113"/>
+    </row>
+    <row r="173" spans="1:18" ht="15.75" thickBot="1">
       <c r="A173" t="s">
         <v>62</v>
       </c>
@@ -33208,7 +33198,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>62</v>
       </c>
@@ -33262,7 +33252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>62</v>
       </c>
@@ -33316,7 +33306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="15.75" thickBot="1">
       <c r="A176" t="s">
         <v>62</v>
       </c>
@@ -33370,7 +33360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="15.75" thickBot="1">
       <c r="A177" t="s">
         <v>62</v>
       </c>
@@ -33409,7 +33399,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>105</v>
       </c>
@@ -33433,7 +33423,7 @@
       </c>
       <c r="H178" s="89"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
         <v>105</v>
       </c>
@@ -33460,7 +33450,7 @@
       <c r="K179" s="53"/>
       <c r="L179" s="53"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
         <v>82</v>
       </c>
@@ -33484,7 +33474,7 @@
       </c>
       <c r="H180" s="89"/>
     </row>
-    <row r="181" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="15.75" thickBot="1">
       <c r="A181" t="s">
         <v>170</v>
       </c>
@@ -33507,14 +33497,14 @@
         <v>6</v>
       </c>
       <c r="H181" s="89"/>
-      <c r="J181" s="113" t="s">
+      <c r="J181" s="125" t="s">
         <v>303</v>
       </c>
-      <c r="K181" s="113"/>
-      <c r="L181" s="113"/>
-      <c r="M181" s="113"/>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K181" s="125"/>
+      <c r="L181" s="125"/>
+      <c r="M181" s="125"/>
+    </row>
+    <row r="182" spans="1:13" ht="15.75" thickBot="1">
       <c r="A182" t="s">
         <v>128</v>
       </c>
@@ -33548,7 +33538,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -33587,7 +33577,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -33626,7 +33616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="15.75" thickBot="1">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -33665,7 +33655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="15.75" thickBot="1">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -33704,7 +33694,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -33728,7 +33718,7 @@
       </c>
       <c r="H187" s="89"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -33755,7 +33745,7 @@
       <c r="K188" s="53"/>
       <c r="L188" s="53"/>
     </row>
-    <row r="189" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="15.75" thickBot="1">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -33779,7 +33769,7 @@
       </c>
       <c r="H189" s="89"/>
     </row>
-    <row r="190" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="15.75" thickBot="1">
       <c r="A190" t="s">
         <v>158</v>
       </c>
@@ -33815,7 +33805,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
         <v>98</v>
       </c>
@@ -33849,12 +33839,12 @@
         <f>(L174-L183)^2/L183</f>
         <v>9.960992907801419</v>
       </c>
-      <c r="M191" s="114">
+      <c r="M191" s="126">
         <f>SUM(K191:L193)</f>
         <v>45.997254632807142</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
         <v>79</v>
       </c>
@@ -33888,9 +33878,9 @@
         <f t="shared" si="29"/>
         <v>9.0376344086021501</v>
       </c>
-      <c r="M192" s="115"/>
-    </row>
-    <row r="193" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M192" s="127"/>
+    </row>
+    <row r="193" spans="1:13" ht="15.75" thickBot="1">
       <c r="A193" t="s">
         <v>79</v>
       </c>
@@ -33924,9 +33914,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="M193" s="116"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M193" s="128"/>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
         <v>79</v>
       </c>
@@ -33950,7 +33940,7 @@
       </c>
       <c r="H194" s="89"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
         <v>160</v>
       </c>
@@ -33974,7 +33964,7 @@
       </c>
       <c r="H195" s="89"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
         <v>160</v>
       </c>
@@ -34001,7 +33991,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
         <v>160</v>
       </c>
@@ -34025,7 +34015,7 @@
       </c>
       <c r="H197" s="89"/>
     </row>
-    <row r="198" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
         <v>160</v>
       </c>
@@ -34052,7 +34042,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
         <v>178</v>
       </c>
@@ -34076,7 +34066,7 @@
       </c>
       <c r="H199" s="89"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
         <v>127</v>
       </c>
@@ -34100,7 +34090,7 @@
       </c>
       <c r="H200" s="89"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
         <v>127</v>
       </c>
@@ -34124,7 +34114,7 @@
       </c>
       <c r="H201" s="89"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
         <v>127</v>
       </c>
@@ -34148,7 +34138,7 @@
       </c>
       <c r="H202" s="89"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
         <v>127</v>
       </c>
@@ -34172,7 +34162,7 @@
       </c>
       <c r="H203" s="89"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
         <v>127</v>
       </c>
@@ -34196,7 +34186,7 @@
       </c>
       <c r="H204" s="89"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
         <v>127</v>
       </c>
@@ -34220,7 +34210,7 @@
       </c>
       <c r="H205" s="89"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
         <v>182</v>
       </c>
@@ -34244,7 +34234,7 @@
       </c>
       <c r="H206" s="89"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
         <v>73</v>
       </c>
@@ -34268,7 +34258,7 @@
       </c>
       <c r="H207" s="89"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
         <v>73</v>
       </c>
@@ -34292,7 +34282,7 @@
       </c>
       <c r="H208" s="89"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>73</v>
       </c>
@@ -34316,7 +34306,7 @@
       </c>
       <c r="H209" s="89"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>86</v>
       </c>
@@ -34340,7 +34330,7 @@
       </c>
       <c r="H210" s="89"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>72</v>
       </c>
@@ -34364,7 +34354,7 @@
       </c>
       <c r="H211" s="89"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>131</v>
       </c>
@@ -34388,7 +34378,7 @@
       </c>
       <c r="H212" s="89"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>150</v>
       </c>
@@ -34412,7 +34402,7 @@
       </c>
       <c r="H213" s="89"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>92</v>
       </c>
@@ -34436,7 +34426,7 @@
       </c>
       <c r="H214" s="89"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>92</v>
       </c>
@@ -34460,7 +34450,7 @@
       </c>
       <c r="H215" s="89"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>92</v>
       </c>
@@ -34484,7 +34474,7 @@
       </c>
       <c r="H216" s="89"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>92</v>
       </c>
@@ -34508,7 +34498,7 @@
       </c>
       <c r="H217" s="89"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>92</v>
       </c>
@@ -34532,7 +34522,7 @@
       </c>
       <c r="H218" s="89"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>92</v>
       </c>
@@ -34556,7 +34546,7 @@
       </c>
       <c r="H219" s="89"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>148</v>
       </c>
@@ -34580,7 +34570,7 @@
       </c>
       <c r="H220" s="89"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>148</v>
       </c>
@@ -34604,7 +34594,7 @@
       </c>
       <c r="H221" s="89"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>148</v>
       </c>
@@ -34628,7 +34618,7 @@
       </c>
       <c r="H222" s="89"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>148</v>
       </c>
@@ -34652,7 +34642,7 @@
       </c>
       <c r="H223" s="89"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>96</v>
       </c>
@@ -34676,7 +34666,7 @@
       </c>
       <c r="H224" s="89"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>130</v>
       </c>
@@ -34700,7 +34690,7 @@
       </c>
       <c r="H225" s="89"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>130</v>
       </c>
@@ -34724,7 +34714,7 @@
       </c>
       <c r="H226" s="89"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>130</v>
       </c>
@@ -34748,7 +34738,7 @@
       </c>
       <c r="H227" s="89"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>186</v>
       </c>
@@ -34772,7 +34762,7 @@
       </c>
       <c r="H228" s="89"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>186</v>
       </c>
@@ -34796,7 +34786,7 @@
       </c>
       <c r="H229" s="89"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>138</v>
       </c>
@@ -34820,7 +34810,7 @@
       </c>
       <c r="H230" s="89"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>138</v>
       </c>
@@ -34844,7 +34834,7 @@
       </c>
       <c r="H231" s="89"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>161</v>
       </c>
@@ -34868,7 +34858,7 @@
       </c>
       <c r="H232" s="89"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>184</v>
       </c>
@@ -34892,7 +34882,7 @@
       </c>
       <c r="H233" s="89"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>124</v>
       </c>
@@ -34916,7 +34906,7 @@
       </c>
       <c r="H234" s="89"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>124</v>
       </c>
@@ -34940,7 +34930,7 @@
       </c>
       <c r="H235" s="89"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>124</v>
       </c>
@@ -34964,7 +34954,7 @@
       </c>
       <c r="H236" s="89"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>124</v>
       </c>
@@ -34988,7 +34978,7 @@
       </c>
       <c r="H237" s="89"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>124</v>
       </c>
@@ -35012,7 +35002,7 @@
       </c>
       <c r="H238" s="89"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>124</v>
       </c>
@@ -35036,7 +35026,7 @@
       </c>
       <c r="H239" s="89"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>111</v>
       </c>
@@ -35060,7 +35050,7 @@
       </c>
       <c r="H240" s="89"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>84</v>
       </c>
@@ -35084,7 +35074,7 @@
       </c>
       <c r="H241" s="89"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>84</v>
       </c>
@@ -35108,7 +35098,7 @@
       </c>
       <c r="H242" s="89"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -35132,7 +35122,7 @@
       </c>
       <c r="H243" s="89"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>84</v>
       </c>
@@ -35156,7 +35146,7 @@
       </c>
       <c r="H244" s="89"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>87</v>
       </c>
@@ -35180,7 +35170,7 @@
       </c>
       <c r="H245" s="89"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>87</v>
       </c>
@@ -35204,7 +35194,7 @@
       </c>
       <c r="H246" s="89"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>171</v>
       </c>
@@ -35228,7 +35218,7 @@
       </c>
       <c r="H247" s="89"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>171</v>
       </c>
@@ -35252,7 +35242,7 @@
       </c>
       <c r="H248" s="89"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>154</v>
       </c>
@@ -35276,7 +35266,7 @@
       </c>
       <c r="H249" s="89"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>154</v>
       </c>
@@ -35300,7 +35290,7 @@
       </c>
       <c r="H250" s="89"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>155</v>
       </c>
@@ -35324,7 +35314,7 @@
       </c>
       <c r="H251" s="89"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>169</v>
       </c>
@@ -35348,7 +35338,7 @@
       </c>
       <c r="H252" s="89"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>169</v>
       </c>
@@ -35372,7 +35362,7 @@
       </c>
       <c r="H253" s="89"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>133</v>
       </c>
@@ -35396,7 +35386,7 @@
       </c>
       <c r="H254" s="89"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>190</v>
       </c>
@@ -35422,7 +35412,7 @@
       </c>
       <c r="H255" s="23"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="97" t="s">
         <v>255</v>
       </c>
@@ -35449,7 +35439,7 @@
       </c>
       <c r="H257" s="15"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="97" t="s">
         <v>256</v>
       </c>
@@ -35476,7 +35466,7 @@
       </c>
       <c r="H258" s="15"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="G259">
         <f>COUNTIF(Tabella5[BreakPointWon],"&gt;18")</f>
         <v>14</v>
@@ -35484,6 +35474,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="J171:N171"/>
+    <mergeCell ref="J172:M172"/>
+    <mergeCell ref="J181:M181"/>
+    <mergeCell ref="M191:M193"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="N86:N88"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="M116:M118"/>
+    <mergeCell ref="J144:N144"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="N159:N161"/>
+    <mergeCell ref="J121:N121"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="J122:M122"/>
     <mergeCell ref="J131:M131"/>
     <mergeCell ref="M139:M141"/>
@@ -35500,28 +35512,6 @@
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="L29:N30"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J171:N171"/>
-    <mergeCell ref="J172:M172"/>
-    <mergeCell ref="J181:M181"/>
-    <mergeCell ref="M191:M193"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="N86:N88"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="M116:M118"/>
-    <mergeCell ref="J144:N144"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="N159:N161"/>
-    <mergeCell ref="J121:N121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35535,295 +35525,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="135"/>
+    <col min="1" max="16384" width="9.140625" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="135" t="s">
+      <c r="K1" s="137" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="135" t="s">
+      <c r="M1" s="137" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="136"/>
-      <c r="M2" s="135" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="138"/>
+      <c r="M2" s="137" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="139" t="s">
         <v>252</v>
       </c>
-      <c r="M3" s="135" t="s">
+      <c r="M3" s="137" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="137" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="M4" s="135" t="s">
+      <c r="M4" s="137" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="137" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="139" t="s">
         <v>289</v>
       </c>
-      <c r="M5" s="135" t="s">
+      <c r="M5" s="137" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="136" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="138" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J9" s="138" t="s">
+    <row r="9" spans="1:13">
+      <c r="J9" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="134" t="s">
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A10" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="138" t="s">
+      <c r="J10" s="140" t="s">
         <v>307</v>
       </c>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="136"/>
-      <c r="J11" s="139" t="s">
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A11" s="138"/>
+      <c r="J11" s="141" t="s">
         <v>304</v>
       </c>
-      <c r="K11" s="140"/>
-      <c r="L11" s="141"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="137" t="s">
+      <c r="K11" s="142"/>
+      <c r="L11" s="143"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="J12" s="142" t="s">
+      <c r="J12" s="144" t="s">
         <v>306</v>
       </c>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="137" t="s">
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="J13" s="138" t="s">
+      <c r="J13" s="140" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="136" t="s">
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="J14" s="138" t="s">
+      <c r="J14" s="140" t="s">
         <v>306</v>
       </c>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J15" s="138" t="s">
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="J15" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="134" t="s">
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="104" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="137" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="138"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="139" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="136" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="138" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="136" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="138" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="143" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="145" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="136" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="135" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="137" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="144" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="146" t="s">
         <v>273</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="143" t="s">
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="145" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="135" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="137" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="135" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="137" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="145" t="s">
+    <row r="36" spans="1:1" ht="18.75">
+      <c r="A36" s="147" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="136" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="138" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="136"/>
-    </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="146" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="138"/>
+    </row>
+    <row r="40" spans="1:1" ht="18">
+      <c r="A40" s="105" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="136"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="136" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="138"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="138" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="136"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="136" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="138"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="138" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="136"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="136" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="138"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="138" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="136"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="136" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="138"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="138" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="146" t="s">
+    <row r="50" spans="1:1" ht="18">
+      <c r="A50" s="105" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="136"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="138"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="138" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="136"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="136" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="138"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="138" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="136" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="138" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A58" s="146" t="s">
+    <row r="58" spans="1:1" ht="18">
+      <c r="A58" s="105" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="136"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="147" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="138"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="148" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="148"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="147" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="138"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="148" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="148"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="147" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="138"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="148" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="148"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="147" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="138"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="148" t="s">
         <v>313</v>
       </c>
     </row>

--- a/Etivity2/Excel_chi-quadro.xlsx
+++ b/Etivity2/Excel_chi-quadro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="301">
   <si>
     <t>xmicina</t>
   </si>
@@ -684,58 +684,10 @@
     <t>Osservati</t>
   </si>
   <si>
-    <t>% Vittorie/Sconfitte</t>
-  </si>
-  <si>
     <t>Gradi = 2</t>
   </si>
   <si>
     <t>χ²</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Contributo a χ²</t>
-  </si>
-  <si>
-    <t>Significato</t>
-  </si>
-  <si>
-    <t>Basso / Sì</t>
-  </si>
-  <si>
-    <t>Meno vittorie del previsto</t>
-  </si>
-  <si>
-    <t>Basso / No</t>
-  </si>
-  <si>
-    <t>Più sconfitte del previsto</t>
-  </si>
-  <si>
-    <t>Medio / Sì</t>
-  </si>
-  <si>
-    <t>Più vittorie del previsto</t>
-  </si>
-  <si>
-    <t>Medio / No</t>
-  </si>
-  <si>
-    <t>Meno sconfitte del previsto</t>
-  </si>
-  <si>
-    <t>Alto / Sì</t>
-  </si>
-  <si>
-    <t>Molto vicino all'atteso</t>
-  </si>
-  <si>
-    <t>Alto / No</t>
-  </si>
-  <si>
-    <t>Anche questo vicino all'atteso</t>
   </si>
   <si>
     <t>FirstServe</t>
@@ -851,12 +803,6 @@
     <t>Gradi=4</t>
   </si>
   <si>
-    <t>non essendoci relazione statistica ne con aces ne con vittoria non creo arco.</t>
-  </si>
-  <si>
-    <t>χ² = 84.16</t>
-  </si>
-  <si>
     <t>ServeWon</t>
   </si>
   <si>
@@ -932,157 +878,13 @@
     <t>Alto [18-28]</t>
   </si>
   <si>
-    <t>χ² = 103.21</t>
-  </si>
-  <si>
     <t>&gt; 9.49</t>
-  </si>
-  <si>
-    <t>Rifiutiamo indipendenza</t>
-  </si>
-  <si>
-    <t>Relazione confermata</t>
   </si>
   <si>
     <t>Le frequenze osservate e quelle attese sono molto simili</t>
   </si>
   <si>
     <t>Le differenze rilevate non hanno valenza statistica</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Non c’è </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>una relazione statisticamente significativa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tra </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>FirstServe%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>Aces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nel tuo dataset</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il test </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>non conferma pienamente la tesi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"chi fa più ace vince di più"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ma </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esiste una relazione significativa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tra il numero di ace e la probabilità di vittoria</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1146,9 +948,6 @@
     <t>Relazione forte e statisticamente significativa</t>
   </si>
   <si>
-    <t>includonella rete</t>
-  </si>
-  <si>
     <t>Conferma ipotesi iniziale: “più ace → più probabilità di vincere”</t>
   </si>
   <si>
@@ -1167,113 +966,10 @@
     <t>Il test del chi-quadro lo conferma con grande evidenza</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">✔️ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chi crea più break point tende a vincerne di più</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">✔️ Relazione </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>forte e significativa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">✔️ Il tuo arco </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>BreakPointCreated → BreakPointWon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> è </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>giustificato pienamente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nella rete bayesiana</t>
-    </r>
-  </si>
-  <si>
     <t>Chi crea più break point tende a vincerne di più</t>
   </si>
   <si>
     <t>BreakPointWon → Vittoria</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>χ² = 45.99 &gt; 5.99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → Rifiutiamo l’ipotesi di indipendenza</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1366,34 +1062,6 @@
   </si>
   <si>
     <r>
-      <t>χ² = 3.96</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (con 2 gradi di libertà)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>χ² = 1.80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (con 4 gradi di libertà)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Esiste una </t>
     </r>
     <r>
@@ -1433,48 +1101,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">arco </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>BreakPointCreated → BreakPointWon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> è </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>giustificato pienamente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> nella rete bayesiana</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">ricostruito il dataset per </t>
     </r>
     <r>
@@ -1490,48 +1116,79 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">creato le </t>
+      <t xml:space="preserve">Non c’è </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>tabelle di contingenza</t>
+      <t>una relazione statisticamente significativa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>FirstServe%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Aces</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">calcolato i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>valori attesi + chi-quadro</t>
-    </r>
+    <t>tabelle dei valori osservati</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">verificato </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>relazioni statisticamente significative</t>
-    </r>
+    <t>tabelle valori attesi + chi-quadro</t>
+  </si>
+  <si>
+    <t>relazioni statisticamente significative</t>
+  </si>
+  <si>
+    <t>chi-quadro = 84.16</t>
+  </si>
+  <si>
+    <t>chi-quadro= 3.96 (con 2 gradi di libertà)</t>
+  </si>
+  <si>
+    <t>chi-quadro= 1.80 (con 4 gradi di libertà)</t>
+  </si>
+  <si>
+    <t>chi-quadro= 103.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chi-quadro= 45.99 &gt; 5.99 → Rifiutiamo l’ipotesi di indipendenza</t>
   </si>
 </sst>
 </file>
@@ -1603,12 +1260,6 @@
       <name val="Arial Unicode MS"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1652,6 +1303,12 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
@@ -2211,7 +1868,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2484,10 +2141,26 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2511,41 +2184,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2568,6 +2211,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2580,29 +2232,44 @@
     <xf numFmtId="43" fontId="2" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -3114,7 +2781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -3296,87 +2963,87 @@
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
       <c r="G16" s="13" t="str">
         <f>"(52-46,37)2"</f>
         <v>(52-46,37)2</v>
       </c>
-      <c r="H16" s="106" t="s">
+      <c r="H16" s="114" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="13" t="str">
         <f>"(10-15,63)2"</f>
         <v>(10-15,63)2</v>
       </c>
-      <c r="J16" s="106" t="s">
+      <c r="J16" s="114" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="13" t="str">
         <f>"(40-45,63)2"</f>
         <v>(40-45,63)2</v>
       </c>
-      <c r="L16" s="106" t="s">
+      <c r="L16" s="114" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="13" t="str">
         <f>"(21-15,37)2"</f>
         <v>(21-15,37)2</v>
       </c>
-      <c r="N16" s="106" t="s">
+      <c r="N16" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="108">
+      <c r="O16" s="116">
         <v>5.46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="B17" s="112"/>
-      <c r="C17" s="111" t="s">
+      <c r="B17" s="120"/>
+      <c r="C17" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
       <c r="G17" s="1">
         <v>46.37</v>
       </c>
-      <c r="H17" s="107"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="1">
         <v>15.63</v>
       </c>
-      <c r="J17" s="107"/>
+      <c r="J17" s="115"/>
       <c r="K17" s="1">
         <v>45.63</v>
       </c>
-      <c r="L17" s="107"/>
+      <c r="L17" s="115"/>
       <c r="M17" s="1">
         <v>15.37</v>
       </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="108"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="116"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="1" t="s">
@@ -3427,7 +3094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP141"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
@@ -19601,16 +19268,16 @@
         <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -23430,16 +23097,16 @@
         <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -27233,8 +26900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F148" workbookViewId="0">
-      <selection activeCell="O143" sqref="O143"/>
+    <sheetView tabSelected="1" topLeftCell="D220" workbookViewId="0">
+      <selection activeCell="K169" sqref="K169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27258,17 +26925,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="J1" s="117" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
+      <c r="J1" s="121" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" t="s">
@@ -27281,23 +26948,23 @@
         <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J2" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" t="s">
@@ -27371,7 +27038,7 @@
       </c>
       <c r="H4" s="89"/>
       <c r="J4" s="27" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="K4" s="33">
         <f>SUMIFS(Tabella5[Aces],Tabella5[Aces],"&lt;15",Tabella5[Vittoria],"Si")</f>
@@ -27425,7 +27092,7 @@
       </c>
       <c r="H5" s="89"/>
       <c r="J5" s="28" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="K5" s="36">
         <f>SUMIFS(Tabella5[Aces],Tabella5[Aces],"&gt;14",Tabella5[Aces],"&lt;26",Tabella5[Vittoria],"Si")</f>
@@ -27479,7 +27146,7 @@
       </c>
       <c r="H6" s="89"/>
       <c r="J6" s="31" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K6" s="39">
         <f>SUMIFS(Tabella5[Aces],Tabella5[Aces],"&gt;25",Tabella5[Vittoria],"Si")</f>
@@ -27600,17 +27267,9 @@
         <v>7</v>
       </c>
       <c r="H9" s="89"/>
-      <c r="J9" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="53">
-        <f>K7/M7</f>
-        <v>0.56753458096013021</v>
-      </c>
-      <c r="L9" s="53">
-        <f>L7/M7</f>
-        <v>0.43246541903986979</v>
-      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="A10" t="s">
@@ -27635,12 +27294,12 @@
         <v>2</v>
       </c>
       <c r="H10" s="89"/>
-      <c r="J10" s="113" t="s">
-        <v>303</v>
-      </c>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
+      <c r="J10" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
       <c r="A11" t="s">
@@ -27702,10 +27361,10 @@
       </c>
       <c r="H12" s="89"/>
       <c r="J12" s="27" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="K12" s="54">
-        <f>(M4*$K$9)</f>
+        <f>(M4*$K$7)/$M$7</f>
         <v>775.81977217249801</v>
       </c>
       <c r="L12" s="55">
@@ -27741,10 +27400,10 @@
       </c>
       <c r="H13" s="89"/>
       <c r="J13" s="28" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="K13" s="54">
-        <f t="shared" ref="K13:K14" si="1">(M5*$K$9)</f>
+        <f t="shared" ref="K13:K14" si="1">(M5*$K$7)/$M$7</f>
         <v>477.29658258746952</v>
       </c>
       <c r="L13" s="55">
@@ -27781,15 +27440,15 @@
       </c>
       <c r="H14" s="89"/>
       <c r="J14" s="31" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K14" s="54">
         <f t="shared" si="1"/>
-        <v>141.88364524003256</v>
+        <v>141.88364524003254</v>
       </c>
       <c r="L14" s="55">
         <f t="shared" si="2"/>
-        <v>108.11635475996744</v>
+        <v>108.11635475996746</v>
       </c>
       <c r="M14" s="41">
         <f>SUM(K14:L14)</f>
@@ -27883,7 +27542,7 @@
       </c>
       <c r="H17" s="89"/>
       <c r="J17" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K17" s="47" t="s">
         <v>211</v>
@@ -27892,7 +27551,7 @@
         <v>212</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -27919,7 +27578,7 @@
       </c>
       <c r="H18" s="89"/>
       <c r="J18" s="27" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="K18" s="56">
         <f t="shared" ref="K18:L20" si="3">((K4-K12)^2)/K12</f>
@@ -27929,9 +27588,9 @@
         <f t="shared" si="3"/>
         <v>20.030681437352847</v>
       </c>
-      <c r="M18" s="118">
+      <c r="M18" s="140">
         <f>SUM(K18:L20)</f>
-        <v>84.160199190082096</v>
+        <v>84.16019919008211</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -27958,7 +27617,7 @@
       </c>
       <c r="H19" s="89"/>
       <c r="J19" s="28" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="K19" s="58">
         <f t="shared" si="3"/>
@@ -27968,7 +27627,7 @@
         <f t="shared" si="3"/>
         <v>26.786563288906226</v>
       </c>
-      <c r="M19" s="119"/>
+      <c r="M19" s="141"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
       <c r="A20" t="s">
@@ -27994,17 +27653,17 @@
       </c>
       <c r="H20" s="89"/>
       <c r="J20" s="52" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K20" s="60">
         <f t="shared" si="3"/>
-        <v>0.72129972031928258</v>
+        <v>0.7212997203192868</v>
       </c>
       <c r="L20" s="61">
         <f t="shared" si="3"/>
-        <v>0.94657865460526758</v>
-      </c>
-      <c r="M20" s="120"/>
+        <v>0.94657865460527268</v>
+      </c>
+      <c r="M20" s="142"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -28153,7 +27812,7 @@
       </c>
       <c r="H26" s="89"/>
       <c r="J26" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -28227,17 +27886,11 @@
         <v>14</v>
       </c>
       <c r="H29" s="89"/>
-      <c r="J29" s="108" t="s">
-        <v>218</v>
-      </c>
-      <c r="K29" s="121" t="s">
-        <v>219</v>
-      </c>
-      <c r="L29" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -28262,11 +27915,11 @@
         <v>9</v>
       </c>
       <c r="H30" s="89"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
@@ -28291,17 +27944,11 @@
         <v>4</v>
       </c>
       <c r="H31" s="89"/>
-      <c r="J31" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="K31" s="72">
-        <v>15.26</v>
-      </c>
-      <c r="L31" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
@@ -28326,17 +27973,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="89"/>
-      <c r="J32" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="K32" s="72">
-        <v>20.03</v>
-      </c>
-      <c r="L32" s="107" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
@@ -28361,17 +28002,11 @@
         <v>13</v>
       </c>
       <c r="H33" s="89"/>
-      <c r="J33" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="K33" s="72">
-        <v>20.41</v>
-      </c>
-      <c r="L33" s="107" t="s">
-        <v>226</v>
-      </c>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
@@ -28396,17 +28031,11 @@
         <v>5</v>
       </c>
       <c r="H34" s="89"/>
-      <c r="J34" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="K34" s="72">
-        <v>26.79</v>
-      </c>
-      <c r="L34" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
@@ -28431,17 +28060,11 @@
         <v>12</v>
       </c>
       <c r="H35" s="89"/>
-      <c r="J35" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="K35" s="72">
-        <v>0.72</v>
-      </c>
-      <c r="L35" s="107" t="s">
-        <v>230</v>
-      </c>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
@@ -28466,17 +28089,11 @@
         <v>2</v>
       </c>
       <c r="H36" s="89"/>
-      <c r="J36" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="K36" s="72">
-        <v>0.95</v>
-      </c>
-      <c r="L36" s="107" t="s">
-        <v>232</v>
-      </c>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
@@ -28525,9 +28142,6 @@
         <v>6</v>
       </c>
       <c r="H38" s="89"/>
-      <c r="J38" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
@@ -28552,9 +28166,6 @@
         <v>12</v>
       </c>
       <c r="H39" s="89"/>
-      <c r="J39" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
@@ -28604,7 +28215,7 @@
       </c>
       <c r="H41" s="89"/>
       <c r="J41" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="K41" s="21">
         <f>AVERAGE(Tabella5[FirstServer])</f>
@@ -28634,13 +28245,13 @@
         <v>19</v>
       </c>
       <c r="H42" s="89"/>
-      <c r="J42" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="K42" s="117"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
+      <c r="J42" s="121" t="s">
+        <v>227</v>
+      </c>
+      <c r="K42" s="121"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="121"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" thickBot="1">
       <c r="A43" t="s">
@@ -28665,12 +28276,12 @@
         <v>12</v>
       </c>
       <c r="H43" s="89"/>
-      <c r="J43" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
+      <c r="J43" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" thickBot="1">
       <c r="A44" t="s">
@@ -28742,7 +28353,7 @@
       </c>
       <c r="H45" s="89"/>
       <c r="J45" s="28" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K45" s="33">
         <f>COUNTIFS(Tabella5[FirstServer],"&lt;55",Tabella5[Vittoria],"si")</f>
@@ -28757,7 +28368,7 @@
         <v>46</v>
       </c>
       <c r="O45" s="28" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="P45" s="63">
         <f>K45/M45</f>
@@ -28796,7 +28407,7 @@
       </c>
       <c r="H46" s="89"/>
       <c r="J46" s="28" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K46" s="36">
         <f>COUNTIFS(Tabella5[FirstServer],"&gt;54",Tabella5[Vittoria],"si",Tabella5[FirstServer],"&lt;65")</f>
@@ -28811,7 +28422,7 @@
         <v>129</v>
       </c>
       <c r="O46" s="28" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="P46" s="63">
         <f>K46/M46</f>
@@ -28850,7 +28461,7 @@
       </c>
       <c r="H47" s="89"/>
       <c r="J47" s="31" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K47" s="39">
         <f>COUNTIFS(Tabella5[FirstServer],"&gt;64",Tabella5[Vittoria],"si")</f>
@@ -28865,7 +28476,7 @@
         <v>77</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="P47" s="68">
         <f>K47/M47</f>
@@ -28966,17 +28577,9 @@
         <v>9</v>
       </c>
       <c r="H50" s="89"/>
-      <c r="J50" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="K50" s="53">
-        <f>K48/M48</f>
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="53">
-        <f>L48/M48</f>
-        <v>0.5</v>
-      </c>
+      <c r="J50" s="44"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" t="s">
@@ -29001,12 +28604,12 @@
         <v>10</v>
       </c>
       <c r="H51" s="89"/>
-      <c r="J51" s="113" t="s">
-        <v>303</v>
-      </c>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
+      <c r="J51" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
       <c r="A52" t="s">
@@ -29066,10 +28669,10 @@
       </c>
       <c r="H53" s="89"/>
       <c r="J53" s="28" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K53" s="33">
-        <f>M45*$K$50</f>
+        <f>(M45*$K$48)/$M$48</f>
         <v>23</v>
       </c>
       <c r="L53" s="34">
@@ -29105,10 +28708,10 @@
       </c>
       <c r="H54" s="89"/>
       <c r="J54" s="28" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K54" s="33">
-        <f t="shared" ref="K54:K55" si="5">M46*$K$50</f>
+        <f t="shared" ref="K54:K55" si="5">(M46*$K$48)/$M$48</f>
         <v>64.5</v>
       </c>
       <c r="L54" s="34">
@@ -29144,7 +28747,7 @@
       </c>
       <c r="H55" s="89"/>
       <c r="J55" s="31" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K55" s="33">
         <f t="shared" si="5"/>
@@ -29246,7 +28849,7 @@
       </c>
       <c r="H58" s="89"/>
       <c r="J58" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K58" s="47" t="s">
         <v>211</v>
@@ -29255,7 +28858,7 @@
         <v>212</v>
       </c>
       <c r="M58" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -29292,7 +28895,7 @@
         <f t="shared" si="7"/>
         <v>1.5652173913043479</v>
       </c>
-      <c r="M59" s="122">
+      <c r="M59" s="137">
         <f>SUM(K59:L61)</f>
         <v>3.9605968685847359</v>
       </c>
@@ -29331,7 +28934,7 @@
         <f t="shared" si="7"/>
         <v>9.6899224806201556E-2</v>
       </c>
-      <c r="M60" s="123"/>
+      <c r="M60" s="138"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
       <c r="A61" t="s">
@@ -29367,7 +28970,7 @@
         <f t="shared" si="7"/>
         <v>0.31818181818181818</v>
       </c>
-      <c r="M61" s="124"/>
+      <c r="M61" s="139"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
@@ -29417,7 +29020,7 @@
       </c>
       <c r="H63" s="89"/>
       <c r="J63" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -29444,7 +29047,7 @@
       </c>
       <c r="H64" s="89"/>
       <c r="J64" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -29471,7 +29074,7 @@
       </c>
       <c r="H65" s="89"/>
       <c r="J65" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -29521,13 +29124,13 @@
         <v>10</v>
       </c>
       <c r="H67" s="89"/>
-      <c r="J67" s="117" t="s">
-        <v>244</v>
-      </c>
-      <c r="K67" s="117"/>
-      <c r="L67" s="117"/>
-      <c r="M67" s="117"/>
-      <c r="N67" s="117"/>
+      <c r="J67" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="K67" s="121"/>
+      <c r="L67" s="121"/>
+      <c r="M67" s="121"/>
+      <c r="N67" s="121"/>
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1">
       <c r="A68" t="s">
@@ -29552,13 +29155,13 @@
         <v>0</v>
       </c>
       <c r="H68" s="89"/>
-      <c r="J68" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="K68" s="113"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="113"/>
-      <c r="N68" s="113"/>
+      <c r="J68" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="K68" s="122"/>
+      <c r="L68" s="122"/>
+      <c r="M68" s="122"/>
+      <c r="N68" s="122"/>
     </row>
     <row r="69" spans="1:16" ht="15.75" thickBot="1">
       <c r="A69" t="s">
@@ -29584,16 +29187,16 @@
       </c>
       <c r="H69" s="89"/>
       <c r="J69" s="79" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="K69" s="83" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="L69" s="84" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="M69" s="85" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="N69" s="30" t="s">
         <v>190</v>
@@ -29623,7 +29226,7 @@
       </c>
       <c r="H70" s="89"/>
       <c r="J70" s="80" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K70" s="33">
         <f>COUNTIFS(Tabella5[FirstServer],"&lt;55",Tabella5[Aces],"&lt;15")</f>
@@ -29667,7 +29270,7 @@
       </c>
       <c r="H71" s="89"/>
       <c r="J71" s="81" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K71" s="36">
         <f>COUNTIFS(Tabella5[FirstServer],"&gt;54",Tabella5[Aces],"&lt;15",Tabella5[FirstServer],"&lt;65")</f>
@@ -29711,7 +29314,7 @@
       </c>
       <c r="H72" s="89"/>
       <c r="J72" s="81" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K72" s="39">
         <f>COUNTIFS(Tabella5[FirstServer],"&gt;64",Tabella5[Aces],"&lt;15")</f>
@@ -29873,13 +29476,13 @@
         <v>11</v>
       </c>
       <c r="H77" s="89"/>
-      <c r="J77" s="113" t="s">
-        <v>303</v>
-      </c>
-      <c r="K77" s="113"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="113"/>
-      <c r="N77" s="113"/>
+      <c r="J77" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="K77" s="122"/>
+      <c r="L77" s="122"/>
+      <c r="M77" s="122"/>
+      <c r="N77" s="122"/>
     </row>
     <row r="78" spans="1:16" ht="15.75" thickBot="1">
       <c r="A78" t="s">
@@ -29905,16 +29508,16 @@
       </c>
       <c r="H78" s="89"/>
       <c r="J78" s="79" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="K78" s="83" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="L78" s="84" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="M78" s="85" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="N78" s="30" t="s">
         <v>190</v>
@@ -29944,7 +29547,7 @@
       </c>
       <c r="H79" s="89"/>
       <c r="J79" s="80" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K79" s="91">
         <f>(N70*$K$73)/$N$73</f>
@@ -29987,7 +29590,7 @@
       </c>
       <c r="H80" s="89"/>
       <c r="J80" s="81" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K80" s="91">
         <f>(N71*$K$73)/$N$73</f>
@@ -30030,7 +29633,7 @@
       </c>
       <c r="H81" s="89"/>
       <c r="J81" s="81" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K81" s="91">
         <f>(N72*$K$73)/$N$73</f>
@@ -30164,16 +29767,16 @@
       </c>
       <c r="H85" s="89"/>
       <c r="J85" s="79" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K85" s="83" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="L85" s="84" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="M85" s="85" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="N85" s="30" t="s">
         <v>190</v>
@@ -30203,7 +29806,7 @@
       </c>
       <c r="H86" s="89"/>
       <c r="J86" s="80" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K86" s="91">
         <f>(K70-K79)^2/K79</f>
@@ -30217,7 +29820,7 @@
         <f t="shared" si="10"/>
         <v>0.19944789510007202</v>
       </c>
-      <c r="N86" s="129">
+      <c r="N86" s="127">
         <f>SUM(K86:M88)</f>
         <v>1.7958762097529675</v>
       </c>
@@ -30246,7 +29849,7 @@
       </c>
       <c r="H87" s="89"/>
       <c r="J87" s="81" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K87" s="91">
         <f t="shared" ref="K87:M87" si="11">(K71-K80)^2/K80</f>
@@ -30260,7 +29863,7 @@
         <f t="shared" si="11"/>
         <v>2.214839424141571E-3</v>
       </c>
-      <c r="N87" s="130"/>
+      <c r="N87" s="128"/>
     </row>
     <row r="88" spans="1:17" ht="15.75" thickBot="1">
       <c r="A88" t="s">
@@ -30286,7 +29889,7 @@
       </c>
       <c r="H88" s="89"/>
       <c r="J88" s="92" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K88" s="93">
         <f t="shared" ref="K88:M88" si="12">(K72-K81)^2/K81</f>
@@ -30300,7 +29903,7 @@
         <f t="shared" si="12"/>
         <v>8.080808080808087E-2</v>
       </c>
-      <c r="N88" s="131"/>
+      <c r="N88" s="129"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" t="s">
@@ -30354,8 +29957,8 @@
         <v>21</v>
       </c>
       <c r="H90" s="89"/>
-      <c r="J90" s="94" t="s">
-        <v>282</v>
+      <c r="J90" s="72" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -30381,8 +29984,8 @@
         <v>4</v>
       </c>
       <c r="H91" s="89"/>
-      <c r="J91" s="94" t="s">
-        <v>283</v>
+      <c r="J91" s="72" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -30408,8 +30011,8 @@
         <v>6</v>
       </c>
       <c r="H92" s="89"/>
-      <c r="J92" s="94" t="s">
-        <v>284</v>
+      <c r="J92" s="72" t="s">
+        <v>292</v>
       </c>
       <c r="K92" s="95"/>
       <c r="L92" s="95"/>
@@ -30490,9 +30093,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="89"/>
-      <c r="J95" s="94" t="s">
-        <v>251</v>
-      </c>
+      <c r="J95" s="72"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" t="s">
@@ -30541,13 +30142,13 @@
         <v>3</v>
       </c>
       <c r="H97" s="89"/>
-      <c r="J97" s="117" t="s">
-        <v>254</v>
-      </c>
-      <c r="K97" s="117"/>
-      <c r="L97" s="117"/>
-      <c r="M97" s="117"/>
-      <c r="N97" s="117"/>
+      <c r="J97" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="K97" s="121"/>
+      <c r="L97" s="121"/>
+      <c r="M97" s="121"/>
+      <c r="N97" s="121"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" thickBot="1">
       <c r="A98" t="s">
@@ -30572,12 +30173,12 @@
         <v>7</v>
       </c>
       <c r="H98" s="89"/>
-      <c r="J98" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="K98" s="113"/>
-      <c r="L98" s="113"/>
-      <c r="M98" s="113"/>
+      <c r="J98" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="K98" s="122"/>
+      <c r="L98" s="122"/>
+      <c r="M98" s="122"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" thickBot="1">
       <c r="A99" t="s">
@@ -30637,7 +30238,7 @@
       </c>
       <c r="H100" s="89"/>
       <c r="J100" s="28" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K100" s="33">
         <f>COUNTIFS(Tabella5[ServeWon],"&lt;57",Tabella5[Vittoria],"si")</f>
@@ -30676,7 +30277,7 @@
       </c>
       <c r="H101" s="89"/>
       <c r="J101" s="28" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K101" s="36">
         <f>COUNTIFS(Tabella5[ServeWon],"&gt;56",Tabella5[Vittoria],"si",Tabella5[ServeWon],"&lt;117")</f>
@@ -30715,7 +30316,7 @@
       </c>
       <c r="H102" s="89"/>
       <c r="J102" s="31" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="K102" s="39">
         <f>COUNTIFS(Tabella5[ServeWon],"&gt;115",Tabella5[Vittoria],"si")</f>
@@ -30816,17 +30417,9 @@
         <v>17</v>
       </c>
       <c r="H105" s="89"/>
-      <c r="J105" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="K105" s="53">
-        <f>K103/M103</f>
-        <v>0.5</v>
-      </c>
-      <c r="L105" s="53">
-        <f>L103/M103</f>
-        <v>0.5</v>
-      </c>
+      <c r="J105" s="44"/>
+      <c r="K105" s="53"/>
+      <c r="L105" s="53"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
@@ -30875,12 +30468,12 @@
         <v>9</v>
       </c>
       <c r="H107" s="89"/>
-      <c r="J107" s="113" t="s">
-        <v>303</v>
-      </c>
-      <c r="K107" s="113"/>
-      <c r="L107" s="113"/>
-      <c r="M107" s="113"/>
+      <c r="J107" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="K107" s="122"/>
+      <c r="L107" s="122"/>
+      <c r="M107" s="122"/>
     </row>
     <row r="108" spans="1:14" ht="15.75" thickBot="1">
       <c r="A108" t="s">
@@ -30940,7 +30533,7 @@
       </c>
       <c r="H109" s="89"/>
       <c r="J109" s="28" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K109" s="33">
         <f>(M100*$K$103)/$M$103</f>
@@ -30979,7 +30572,7 @@
       </c>
       <c r="H110" s="89"/>
       <c r="J110" s="28" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K110" s="33">
         <f t="shared" ref="K110:K111" si="13">(M101*$K$103)/$M$103</f>
@@ -31018,7 +30611,7 @@
       </c>
       <c r="H111" s="89"/>
       <c r="J111" s="31" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="K111" s="33">
         <f t="shared" si="13"/>
@@ -31119,10 +30712,10 @@
         <v>7</v>
       </c>
       <c r="H114" s="89"/>
-      <c r="J114" s="113"/>
-      <c r="K114" s="113"/>
-      <c r="L114" s="113"/>
-      <c r="M114" s="113"/>
+      <c r="J114" s="122"/>
+      <c r="K114" s="122"/>
+      <c r="L114" s="122"/>
+      <c r="M114" s="122"/>
     </row>
     <row r="115" spans="1:18" ht="15.75" thickBot="1">
       <c r="A115" t="s">
@@ -31148,7 +30741,7 @@
       </c>
       <c r="H115" s="89"/>
       <c r="J115" s="73" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K115" s="74" t="s">
         <v>211</v>
@@ -31184,7 +30777,7 @@
       </c>
       <c r="H116" s="89"/>
       <c r="J116" s="28" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K116" s="98">
         <f>(K100-K109)^2/K109</f>
@@ -31194,7 +30787,7 @@
         <f>(L100-L109)^2/L109</f>
         <v>1.8285714285714285</v>
       </c>
-      <c r="M116" s="114">
+      <c r="M116" s="130">
         <f>SUM(K116:L118)</f>
         <v>5.0793650793650791</v>
       </c>
@@ -31223,7 +30816,7 @@
       </c>
       <c r="H117" s="89"/>
       <c r="J117" s="28" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K117" s="98">
         <f t="shared" ref="K117:L117" si="15">(K101-K110)^2/K110</f>
@@ -31233,7 +30826,7 @@
         <f t="shared" si="15"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="M117" s="115"/>
+      <c r="M117" s="131"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" thickBot="1">
       <c r="A118" t="s">
@@ -31259,7 +30852,7 @@
       </c>
       <c r="H118" s="89"/>
       <c r="J118" s="52" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="K118" s="99">
         <f t="shared" ref="K118:L118" si="16">(K102-K111)^2/K111</f>
@@ -31269,7 +30862,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M118" s="116"/>
+      <c r="M118" s="132"/>
     </row>
     <row r="119" spans="1:18">
       <c r="A119" t="s">
@@ -31342,13 +30935,13 @@
         <v>6</v>
       </c>
       <c r="H121" s="89"/>
-      <c r="J121" s="117" t="s">
-        <v>267</v>
-      </c>
-      <c r="K121" s="117"/>
-      <c r="L121" s="117"/>
-      <c r="M121" s="117"/>
-      <c r="N121" s="117"/>
+      <c r="J121" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="K121" s="121"/>
+      <c r="L121" s="121"/>
+      <c r="M121" s="121"/>
+      <c r="N121" s="121"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" thickBot="1">
       <c r="A122" t="s">
@@ -31373,12 +30966,12 @@
         <v>1</v>
       </c>
       <c r="H122" s="89"/>
-      <c r="J122" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="K122" s="113"/>
-      <c r="L122" s="113"/>
-      <c r="M122" s="113"/>
+      <c r="J122" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="K122" s="122"/>
+      <c r="L122" s="122"/>
+      <c r="M122" s="122"/>
     </row>
     <row r="123" spans="1:18" ht="15.75" thickBot="1">
       <c r="A123" t="s">
@@ -31450,7 +31043,7 @@
       </c>
       <c r="H124" s="89"/>
       <c r="J124" s="28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K124" s="33">
         <f>COUNTIFS(Tabella5[BreakPointCreati],"&lt;4",Tabella5[Vittoria],"si")</f>
@@ -31465,7 +31058,7 @@
         <v>123</v>
       </c>
       <c r="O124" s="28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="P124" s="63">
         <f>K124/M124</f>
@@ -31504,7 +31097,7 @@
       </c>
       <c r="H125" s="89"/>
       <c r="J125" s="28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K125" s="36">
         <f>COUNTIFS(Tabella5[BreakPointCreati],"&gt;3",Tabella5[Vittoria],"si",Tabella5[BreakPointCreati],"&lt;8")</f>
@@ -31519,7 +31112,7 @@
         <v>115</v>
       </c>
       <c r="O125" s="28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="P125" s="63">
         <f>K125/M125</f>
@@ -31558,7 +31151,7 @@
       </c>
       <c r="H126" s="89"/>
       <c r="J126" s="31" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="K126" s="33">
         <f>COUNTIFS(Tabella5[BreakPointCreati],"&gt;7",Tabella5[Vittoria],"si")</f>
@@ -31573,7 +31166,7 @@
         <v>14</v>
       </c>
       <c r="O126" s="52" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="P126" s="68">
         <f>K126/M126</f>
@@ -31674,17 +31267,9 @@
         <v>15</v>
       </c>
       <c r="H129" s="89"/>
-      <c r="J129" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="K129" s="53">
-        <f>K127/M127</f>
-        <v>0.5</v>
-      </c>
-      <c r="L129" s="53">
-        <f>L127/M127</f>
-        <v>0.5</v>
-      </c>
+      <c r="J129" s="44"/>
+      <c r="K129" s="53"/>
+      <c r="L129" s="53"/>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
@@ -31733,12 +31318,12 @@
         <v>12</v>
       </c>
       <c r="H131" s="89"/>
-      <c r="J131" s="113" t="s">
-        <v>303</v>
-      </c>
-      <c r="K131" s="113"/>
-      <c r="L131" s="113"/>
-      <c r="M131" s="113"/>
+      <c r="J131" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="K131" s="122"/>
+      <c r="L131" s="122"/>
+      <c r="M131" s="122"/>
     </row>
     <row r="132" spans="1:14" ht="15.75" thickBot="1">
       <c r="A132" t="s">
@@ -31798,7 +31383,7 @@
       </c>
       <c r="H133" s="89"/>
       <c r="J133" s="28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K133" s="33">
         <f>(M124*$K$127)/$M$127</f>
@@ -31837,7 +31422,7 @@
       </c>
       <c r="H134" s="89"/>
       <c r="J134" s="28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K134" s="33">
         <f>(M125*$K$127)/$M$127</f>
@@ -31876,7 +31461,7 @@
       </c>
       <c r="H135" s="89"/>
       <c r="J135" s="31" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="K135" s="33">
         <f>(M126*$K$127)/$M$127</f>
@@ -31978,7 +31563,7 @@
       </c>
       <c r="H138" s="89"/>
       <c r="J138" s="73" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K138" s="74" t="s">
         <v>211</v>
@@ -32014,7 +31599,7 @@
       </c>
       <c r="H139" s="89"/>
       <c r="J139" s="28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K139" s="98">
         <f>(K124-K133)^2/K133</f>
@@ -32024,7 +31609,7 @@
         <f>(L124-L133)^2/L133</f>
         <v>25.369918699186993</v>
       </c>
-      <c r="M139" s="114">
+      <c r="M139" s="130">
         <f>SUM(K139:L141)</f>
         <v>100.06033429278392</v>
       </c>
@@ -32053,7 +31638,7 @@
       </c>
       <c r="H140" s="89"/>
       <c r="J140" s="28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K140" s="98">
         <f t="shared" ref="K140:L140" si="19">(K125-K134)^2/K134</f>
@@ -32063,7 +31648,7 @@
         <f t="shared" si="19"/>
         <v>19.517391304347825</v>
       </c>
-      <c r="M140" s="115"/>
+      <c r="M140" s="131"/>
     </row>
     <row r="141" spans="1:14" ht="15.75" thickBot="1">
       <c r="A141" t="s">
@@ -32089,7 +31674,7 @@
       </c>
       <c r="H141" s="89"/>
       <c r="J141" s="52" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="K141" s="99">
         <f t="shared" ref="K141:L141" si="20">(K126-K135)^2/K135</f>
@@ -32099,7 +31684,7 @@
         <f t="shared" si="20"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="M141" s="116"/>
+      <c r="M141" s="132"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
@@ -32148,13 +31733,13 @@
         <v>3</v>
       </c>
       <c r="H143" s="89"/>
-      <c r="J143" s="117" t="s">
-        <v>273</v>
-      </c>
-      <c r="K143" s="117"/>
-      <c r="L143" s="117"/>
-      <c r="M143" s="117"/>
-      <c r="N143" s="117"/>
+      <c r="J143" s="121" t="s">
+        <v>255</v>
+      </c>
+      <c r="K143" s="121"/>
+      <c r="L143" s="121"/>
+      <c r="M143" s="121"/>
+      <c r="N143" s="121"/>
     </row>
     <row r="144" spans="1:14" ht="15.75" thickBot="1">
       <c r="A144" t="s">
@@ -32179,13 +31764,13 @@
         <v>7</v>
       </c>
       <c r="H144" s="89"/>
-      <c r="J144" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="K144" s="113"/>
-      <c r="L144" s="113"/>
-      <c r="M144" s="113"/>
-      <c r="N144" s="113"/>
+      <c r="J144" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="K144" s="122"/>
+      <c r="L144" s="122"/>
+      <c r="M144" s="122"/>
+      <c r="N144" s="122"/>
     </row>
     <row r="145" spans="1:14" ht="15.75" thickBot="1">
       <c r="A145" t="s">
@@ -32211,16 +31796,16 @@
       </c>
       <c r="H145" s="89"/>
       <c r="J145" s="79" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="K145" s="83" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="L145" s="84" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M145" s="85" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="N145" s="30" t="s">
         <v>190</v>
@@ -32250,7 +31835,7 @@
       </c>
       <c r="H146" s="89"/>
       <c r="J146" s="28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K146" s="33">
         <f>COUNTIFS(Tabella5[BreakPointCreati],"&lt;4",Tabella5[BreakPointWon],"&lt;10")</f>
@@ -32293,7 +31878,7 @@
       </c>
       <c r="H147" s="89"/>
       <c r="J147" s="28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K147" s="36">
         <f>COUNTIFS(Tabella5[BreakPointCreati],"&gt;3",Tabella5[BreakPointWon],"&lt;10",Tabella5[BreakPointCreati],"&lt;8")</f>
@@ -32336,7 +31921,7 @@
       </c>
       <c r="H148" s="89"/>
       <c r="J148" s="52" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="K148" s="33">
         <f>COUNTIFS(Tabella5[BreakPointCreati],"&gt;7",Tabella5[BreakPointWon],"&lt;10")</f>
@@ -32445,13 +32030,13 @@
         <v>5</v>
       </c>
       <c r="H151" s="89"/>
-      <c r="J151" s="132" t="s">
-        <v>303</v>
-      </c>
-      <c r="K151" s="132"/>
-      <c r="L151" s="132"/>
-      <c r="M151" s="132"/>
-      <c r="N151" s="132"/>
+      <c r="J151" s="133" t="s">
+        <v>274</v>
+      </c>
+      <c r="K151" s="133"/>
+      <c r="L151" s="133"/>
+      <c r="M151" s="133"/>
+      <c r="N151" s="133"/>
     </row>
     <row r="152" spans="1:14" ht="15.75" thickBot="1">
       <c r="A152" t="s">
@@ -32477,16 +32062,16 @@
       </c>
       <c r="H152" s="89"/>
       <c r="J152" s="79" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="K152" s="83" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="L152" s="84" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M152" s="85" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="N152" s="30" t="s">
         <v>190</v>
@@ -32516,7 +32101,7 @@
       </c>
       <c r="H153" s="89"/>
       <c r="J153" s="28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K153" s="91">
         <f>(N146*$K$149)/$N$149</f>
@@ -32559,7 +32144,7 @@
       </c>
       <c r="H154" s="89"/>
       <c r="J154" s="28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K154" s="102">
         <f t="shared" ref="K154:K155" si="21">(N147*$K$149)/$N$149</f>
@@ -32602,7 +32187,7 @@
       </c>
       <c r="H155" s="89"/>
       <c r="J155" s="52" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="K155" s="91">
         <f t="shared" si="21"/>
@@ -32712,16 +32297,16 @@
       </c>
       <c r="H158" s="89"/>
       <c r="J158" s="79" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K158" s="83" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="L158" s="84" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M158" s="85" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="N158" s="30" t="s">
         <v>190</v>
@@ -32751,7 +32336,7 @@
       </c>
       <c r="H159" s="89"/>
       <c r="J159" s="28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K159" s="91">
         <f>(K146-K153)^2/K153</f>
@@ -32765,7 +32350,7 @@
         <f t="shared" ref="M159" si="24">(M146-M153)^2/M153</f>
         <v>6.8995354239256672</v>
       </c>
-      <c r="N159" s="133">
+      <c r="N159" s="134">
         <f>SUM(K159:M161)</f>
         <v>103.21495487587744</v>
       </c>
@@ -32794,7 +32379,7 @@
       </c>
       <c r="H160" s="89"/>
       <c r="J160" s="28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K160" s="91">
         <f t="shared" ref="K160:M160" si="25">(K147-K154)^2/K154</f>
@@ -32808,7 +32393,7 @@
         <f t="shared" si="25"/>
         <v>1.7447204968944168</v>
       </c>
-      <c r="N160" s="134"/>
+      <c r="N160" s="135"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" thickBot="1">
       <c r="A161" t="s">
@@ -32834,7 +32419,7 @@
       </c>
       <c r="H161" s="89"/>
       <c r="J161" s="52" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="K161" s="93">
         <f t="shared" ref="K161:M161" si="26">(K148-K155)^2/K155</f>
@@ -32848,7 +32433,7 @@
         <f t="shared" si="26"/>
         <v>16</v>
       </c>
-      <c r="N161" s="135"/>
+      <c r="N161" s="136"/>
     </row>
     <row r="162" spans="1:18">
       <c r="A162" t="s">
@@ -32898,7 +32483,7 @@
       </c>
       <c r="H163" s="89"/>
       <c r="J163" s="72" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="M163" s="72"/>
     </row>
@@ -32926,7 +32511,7 @@
       </c>
       <c r="H164" s="89"/>
       <c r="J164" s="72" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="K164" s="71"/>
     </row>
@@ -32953,9 +32538,7 @@
         <v>20</v>
       </c>
       <c r="H165" s="89"/>
-      <c r="J165" s="72" t="s">
-        <v>280</v>
-      </c>
+      <c r="J165" s="72"/>
       <c r="M165" s="72"/>
     </row>
     <row r="166" spans="1:18">
@@ -32981,9 +32564,7 @@
         <v>6</v>
       </c>
       <c r="H166" s="89"/>
-      <c r="J166" s="72" t="s">
-        <v>281</v>
-      </c>
+      <c r="J166" s="72"/>
       <c r="M166" s="72"/>
     </row>
     <row r="167" spans="1:18">
@@ -33009,9 +32590,6 @@
         <v>3</v>
       </c>
       <c r="H167" s="89"/>
-      <c r="J167" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="168" spans="1:18">
       <c r="A168" t="s">
@@ -33036,9 +32614,6 @@
         <v>8</v>
       </c>
       <c r="H168" s="89"/>
-      <c r="J168" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="169" spans="1:18">
       <c r="A169" t="s">
@@ -33063,9 +32638,6 @@
         <v>10</v>
       </c>
       <c r="H169" s="89"/>
-      <c r="J169" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="170" spans="1:18">
       <c r="A170" t="s">
@@ -33114,13 +32686,13 @@
         <v>24</v>
       </c>
       <c r="H171" s="89"/>
-      <c r="J171" s="117" t="s">
-        <v>300</v>
-      </c>
-      <c r="K171" s="117"/>
-      <c r="L171" s="117"/>
-      <c r="M171" s="117"/>
-      <c r="N171" s="117"/>
+      <c r="J171" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="K171" s="121"/>
+      <c r="L171" s="121"/>
+      <c r="M171" s="121"/>
+      <c r="N171" s="121"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" thickBot="1">
       <c r="A172" t="s">
@@ -33145,12 +32717,12 @@
         <v>5</v>
       </c>
       <c r="H172" s="89"/>
-      <c r="J172" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="K172" s="113"/>
-      <c r="L172" s="113"/>
-      <c r="M172" s="113"/>
+      <c r="J172" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="K172" s="122"/>
+      <c r="L172" s="122"/>
+      <c r="M172" s="122"/>
     </row>
     <row r="173" spans="1:18" ht="15.75" thickBot="1">
       <c r="A173" t="s">
@@ -33222,7 +32794,7 @@
       </c>
       <c r="H174" s="89"/>
       <c r="J174" s="28" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="K174" s="33">
         <f>COUNTIFS(Tabella5[BreakPointWon],"&lt;10",Tabella5[Vittoria],"si")</f>
@@ -33237,7 +32809,7 @@
         <v>141</v>
       </c>
       <c r="O174" s="28" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="P174" s="63">
         <f>K174/M174</f>
@@ -33276,7 +32848,7 @@
       </c>
       <c r="H175" s="89"/>
       <c r="J175" s="28" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K175" s="36">
         <f>COUNTIFS(Tabella5[BreakPointWon],"&gt;9",Tabella5[Vittoria],"si",Tabella5[BreakPointWon],"&lt;18")</f>
@@ -33291,7 +32863,7 @@
         <v>93</v>
       </c>
       <c r="O175" s="28" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="P175" s="63">
         <f>K175/M175</f>
@@ -33330,7 +32902,7 @@
       </c>
       <c r="H176" s="89"/>
       <c r="J176" s="31" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="K176" s="33">
         <f>COUNTIFS(Tabella5[BreakPointWon],"&gt;17",Tabella5[Vittoria],"si")</f>
@@ -33345,7 +32917,7 @@
         <v>18</v>
       </c>
       <c r="O176" s="52" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="P176" s="68">
         <f>K176/M176</f>
@@ -33497,12 +33069,12 @@
         <v>6</v>
       </c>
       <c r="H181" s="89"/>
-      <c r="J181" s="125" t="s">
-        <v>303</v>
-      </c>
-      <c r="K181" s="125"/>
-      <c r="L181" s="125"/>
-      <c r="M181" s="125"/>
+      <c r="J181" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="K181" s="123"/>
+      <c r="L181" s="123"/>
+      <c r="M181" s="123"/>
     </row>
     <row r="182" spans="1:13" ht="15.75" thickBot="1">
       <c r="A182" t="s">
@@ -33562,7 +33134,7 @@
       </c>
       <c r="H183" s="89"/>
       <c r="J183" s="28" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="K183" s="33">
         <f>(M174*$K$177)/$M$177</f>
@@ -33601,7 +33173,7 @@
       </c>
       <c r="H184" s="89"/>
       <c r="J184" s="28" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K184" s="33">
         <f>(M175*$K$177)/$M$177</f>
@@ -33640,7 +33212,7 @@
       </c>
       <c r="H185" s="89"/>
       <c r="J185" s="31" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="K185" s="33">
         <f>(M176*$K$177)/$M$177</f>
@@ -33793,7 +33365,7 @@
       </c>
       <c r="H190" s="89"/>
       <c r="J190" s="73" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K190" s="74" t="s">
         <v>211</v>
@@ -33829,7 +33401,7 @@
       </c>
       <c r="H191" s="89"/>
       <c r="J191" s="28" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="K191" s="98">
         <f>(K174-K183)^2/K183</f>
@@ -33839,7 +33411,7 @@
         <f>(L174-L183)^2/L183</f>
         <v>9.960992907801419</v>
       </c>
-      <c r="M191" s="126">
+      <c r="M191" s="124">
         <f>SUM(K191:L193)</f>
         <v>45.997254632807142</v>
       </c>
@@ -33868,7 +33440,7 @@
       </c>
       <c r="H192" s="89"/>
       <c r="J192" s="28" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K192" s="98">
         <f t="shared" ref="K192:L192" si="29">(K175-K184)^2/K184</f>
@@ -33878,7 +33450,7 @@
         <f t="shared" si="29"/>
         <v>9.0376344086021501</v>
       </c>
-      <c r="M192" s="127"/>
+      <c r="M192" s="125"/>
     </row>
     <row r="193" spans="1:13" ht="15.75" thickBot="1">
       <c r="A193" t="s">
@@ -33904,7 +33476,7 @@
       </c>
       <c r="H193" s="89"/>
       <c r="J193" s="52" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="K193" s="99">
         <f t="shared" ref="K193:L193" si="30">(K176-K185)^2/K185</f>
@@ -33914,7 +33486,7 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="M193" s="128"/>
+      <c r="M193" s="126"/>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" t="s">
@@ -33988,7 +33560,7 @@
       </c>
       <c r="H196" s="89"/>
       <c r="J196" s="94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -34039,7 +33611,7 @@
       </c>
       <c r="H198" s="89"/>
       <c r="J198" s="24" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -35414,7 +34986,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="97" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B257" s="15">
         <f>MAX(Tabella5[Aces])</f>
@@ -35441,7 +35013,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="97" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B258" s="15">
         <f>MIN(Tabella5[Aces])</f>
@@ -35474,6 +35046,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="J131:M131"/>
+    <mergeCell ref="M139:M141"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L29:N30"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="J171:N171"/>
     <mergeCell ref="J172:M172"/>
     <mergeCell ref="J181:M181"/>
@@ -35490,28 +35084,6 @@
     <mergeCell ref="J151:N151"/>
     <mergeCell ref="N159:N161"/>
     <mergeCell ref="J121:N121"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="J131:M131"/>
-    <mergeCell ref="M139:M141"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="L29:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35525,296 +35097,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="137"/>
+    <col min="1" max="16384" width="9.140625" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="104" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="137" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="107" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="111" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="108"/>
+      <c r="M2" s="150" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="109" t="s">
+        <v>296</v>
+      </c>
+      <c r="M3" s="150" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="137" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="138"/>
-      <c r="M2" s="137" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="139" t="s">
-        <v>252</v>
-      </c>
-      <c r="M3" s="137" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="139" t="s">
-        <v>288</v>
-      </c>
-      <c r="M4" s="137" t="s">
-        <v>271</v>
+      <c r="M4" s="111" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="139" t="s">
-        <v>289</v>
-      </c>
-      <c r="M5" s="137" t="s">
-        <v>272</v>
+      <c r="A5" s="109"/>
+      <c r="M5" s="111" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="138" t="s">
-        <v>290</v>
+      <c r="A6" s="108" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
     </row>
     <row r="10" spans="1:13" ht="17.25" thickBot="1">
       <c r="A10" s="104" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10" s="140" t="s">
-        <v>307</v>
-      </c>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
+        <v>227</v>
+      </c>
+      <c r="J10" s="146" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
     </row>
     <row r="11" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A11" s="138"/>
-      <c r="J11" s="141" t="s">
-        <v>304</v>
-      </c>
-      <c r="K11" s="142"/>
-      <c r="L11" s="143"/>
+      <c r="A11" s="108"/>
+      <c r="J11" s="147" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="148"/>
+      <c r="L11" s="149"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="139" t="s">
-        <v>318</v>
-      </c>
-      <c r="J12" s="144" t="s">
-        <v>306</v>
-      </c>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
+      <c r="A12" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="J12" s="146" t="s">
+        <v>277</v>
+      </c>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="139" t="s">
-        <v>291</v>
-      </c>
-      <c r="J13" s="140" t="s">
+      <c r="A13" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
+      <c r="J13" s="146" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="138" t="s">
-        <v>292</v>
-      </c>
-      <c r="J14" s="140" t="s">
-        <v>306</v>
-      </c>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
+      <c r="A14" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="146" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="J15" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
+      <c r="J15" s="145" t="s">
+        <v>276</v>
+      </c>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="104" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="138"/>
+      <c r="A19" s="108"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="139" t="s">
-        <v>319</v>
+      <c r="A20" s="109" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="138" t="s">
-        <v>293</v>
+      <c r="A21" s="108" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="138" t="s">
-        <v>294</v>
+      <c r="A22" s="108" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="145" t="s">
-        <v>267</v>
+      <c r="A24" s="110" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="136" t="s">
-        <v>320</v>
+      <c r="A25" s="106" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="137" t="s">
-        <v>295</v>
+      <c r="A26" s="107" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="146" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
+      <c r="A28" s="144" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="145" t="s">
-        <v>299</v>
+      <c r="A30" s="110" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="137" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="137" t="s">
-        <v>322</v>
+      <c r="A31" s="107" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75">
-      <c r="A36" s="147" t="s">
-        <v>308</v>
+      <c r="A36" s="112" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="138" t="s">
-        <v>323</v>
+      <c r="A37" s="108" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="138"/>
+      <c r="A38" s="108"/>
     </row>
     <row r="40" spans="1:1" ht="18">
       <c r="A40" s="105" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="138"/>
+      <c r="A41" s="108"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="138" t="s">
-        <v>309</v>
+      <c r="A42" s="108" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="138"/>
+      <c r="A43" s="108"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="138" t="s">
-        <v>305</v>
+      <c r="A44" s="108" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="138"/>
+      <c r="A45" s="108"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="138" t="s">
-        <v>310</v>
+      <c r="A46" s="108" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="138"/>
+      <c r="A47" s="108"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="138" t="s">
-        <v>315</v>
+      <c r="A48" s="108" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18">
       <c r="A50" s="105" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="138"/>
+      <c r="A51" s="108"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="138" t="s">
-        <v>324</v>
+      <c r="A52" s="109" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="138"/>
+      <c r="A53" s="108"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="138" t="s">
-        <v>325</v>
+      <c r="A54" s="109" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="138" t="s">
-        <v>326</v>
+      <c r="A56" s="109" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18">
       <c r="A58" s="105" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="138"/>
+      <c r="A59" s="108"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="148" t="s">
-        <v>242</v>
+      <c r="A60" s="113" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="138"/>
+      <c r="A61" s="108"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="148" t="s">
-        <v>311</v>
+      <c r="A62" s="113" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="138"/>
+      <c r="A63" s="108"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="148" t="s">
-        <v>312</v>
+      <c r="A64" s="113" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="138"/>
+      <c r="A65" s="108"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="148" t="s">
-        <v>313</v>
+      <c r="A66" s="113" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
